--- a/data/tidy/cut_shapefiles_reviewed.xlsx
+++ b/data/tidy/cut_shapefiles_reviewed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d135da842735aabe/Documentos/GitHub/e-gov-index/data/tidy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2966" documentId="11_F25DC773A252ABDACC1048F3099F60CE5BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5651ABDC-00F0-48FD-9487-440A4EF2ED84}"/>
+  <xr:revisionPtr revIDLastSave="3052" documentId="11_F25DC773A252ABDACC1048F3099F60CE5BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78A73E38-7880-48D5-A33B-71043430BC7C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5882" uniqueCount="1260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7612" uniqueCount="1286">
   <si>
     <t>Comuna</t>
   </si>
@@ -3818,6 +3818,84 @@
   </si>
   <si>
     <t>dai_municipios_online_2014</t>
+  </si>
+  <si>
+    <t>Estimaciones_de_Tasa_de_Pobreza_por_Ingresos_por_Comunas_2020</t>
+  </si>
+  <si>
+    <t>PLANILLA_Estimaciones_comunales_tasa_pobreza_por_ingresos_multidimensional_2017</t>
+  </si>
+  <si>
+    <t>PLANILLA_Estimaciones_comunales_tasa_pobreza_por_ingresos_multidimensional_2015</t>
+  </si>
+  <si>
+    <t>"8406"</t>
+  </si>
+  <si>
+    <t>"8403"</t>
+  </si>
+  <si>
+    <t>"8404"</t>
+  </si>
+  <si>
+    <t>"8408"</t>
+  </si>
+  <si>
+    <t>"8412"</t>
+  </si>
+  <si>
+    <t>"8415"</t>
+  </si>
+  <si>
+    <t>"8420"</t>
+  </si>
+  <si>
+    <t>"8416"</t>
+  </si>
+  <si>
+    <t>"8405"</t>
+  </si>
+  <si>
+    <t>"8409"</t>
+  </si>
+  <si>
+    <t>"8417"</t>
+  </si>
+  <si>
+    <t>"8419"</t>
+  </si>
+  <si>
+    <t>"8414"</t>
+  </si>
+  <si>
+    <t>"8421"</t>
+  </si>
+  <si>
+    <t>"8418"</t>
+  </si>
+  <si>
+    <t>"8413"</t>
+  </si>
+  <si>
+    <t>"8411"</t>
+  </si>
+  <si>
+    <t>"8410"</t>
+  </si>
+  <si>
+    <t>"8407"</t>
+  </si>
+  <si>
+    <t>"8402"</t>
+  </si>
+  <si>
+    <t>"8401"</t>
+  </si>
+  <si>
+    <t>PLANILLA_Estimaciones_comunales_tasa_pobreza_por_ingresos_2013</t>
+  </si>
+  <si>
+    <t>Estimaciones_tasa_de_pobreza_comunal_2011_(nueva_metodologia)</t>
   </si>
 </sst>
 </file>
@@ -3871,7 +3949,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3900,6 +3978,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4181,10 +4265,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q346"/>
+  <dimension ref="A1:V346"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4206,62 +4291,81 @@
     <col min="15" max="15" width="25.6640625" customWidth="1"/>
     <col min="16" max="16" width="25.21875" customWidth="1"/>
     <col min="17" max="17" width="25" customWidth="1"/>
+    <col min="18" max="18" width="31.44140625" customWidth="1"/>
+    <col min="19" max="19" width="38.77734375" customWidth="1"/>
+    <col min="20" max="21" width="43.5546875" customWidth="1"/>
+    <col min="22" max="22" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="12" t="s">
         <v>340</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="12" t="s">
         <v>687</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="11" t="s">
         <v>895</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="12" t="s">
         <v>900</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="12" t="s">
         <v>1248</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="11" t="s">
         <v>902</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="11" t="s">
         <v>1250</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="11" t="s">
         <v>1251</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="11" t="s">
         <v>1252</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="11" t="s">
         <v>1253</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="11" t="s">
         <v>1254</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="11" t="s">
         <v>1255</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="11" t="s">
         <v>1256</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="11" t="s">
         <v>1257</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="11" t="s">
         <v>1258</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="11" t="s">
         <v>1259</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R1" s="11" t="s">
+        <v>1260</v>
+      </c>
+      <c r="S1" s="11" t="s">
+        <v>1261</v>
+      </c>
+      <c r="T1" s="11" t="s">
+        <v>1262</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>1284</v>
+      </c>
+      <c r="V1" s="11" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4313,8 +4417,23 @@
       <c r="Q2" s="7" t="s">
         <v>1159</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R2" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4366,8 +4485,23 @@
       <c r="Q3" s="7" t="s">
         <v>1055</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R3" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4419,8 +4553,23 @@
       <c r="Q4" s="7" t="s">
         <v>1053</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R4" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -4472,8 +4621,23 @@
       <c r="Q5" s="7" t="s">
         <v>1020</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R5" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -4525,8 +4689,23 @@
       <c r="Q6" s="7" t="s">
         <v>919</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R6" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -4578,8 +4757,23 @@
       <c r="Q7" s="7" t="s">
         <v>1076</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R7" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="V7" s="4" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -4631,8 +4825,23 @@
       <c r="Q8" s="7" t="s">
         <v>1010</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R8" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -4684,8 +4893,23 @@
       <c r="Q9" s="7" t="s">
         <v>1247</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R9" s="4" t="s">
+        <v>691</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>691</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>691</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>691</v>
+      </c>
+      <c r="V9" s="4" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -4737,8 +4961,23 @@
       <c r="Q10" s="7" t="s">
         <v>1093</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R10" s="4" t="s">
+        <v>692</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>692</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>692</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>692</v>
+      </c>
+      <c r="V10" s="4" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -4790,8 +5029,23 @@
       <c r="Q11" s="7" t="s">
         <v>1148</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R11" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="V11" s="4" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -4843,8 +5097,23 @@
       <c r="Q12" s="7" t="s">
         <v>1048</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R12" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="T12" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="V12" s="4" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -4896,8 +5165,23 @@
       <c r="Q13" s="7" t="s">
         <v>999</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R13" s="4" t="s">
+        <v>695</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>695</v>
+      </c>
+      <c r="T13" s="4" t="s">
+        <v>695</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>695</v>
+      </c>
+      <c r="V13" s="4" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -4949,8 +5233,23 @@
       <c r="Q14" s="7" t="s">
         <v>1030</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R14" s="4" t="s">
+        <v>696</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>696</v>
+      </c>
+      <c r="T14" s="4" t="s">
+        <v>696</v>
+      </c>
+      <c r="U14" s="4" t="s">
+        <v>696</v>
+      </c>
+      <c r="V14" s="4" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -5002,8 +5301,23 @@
       <c r="Q15" s="7" t="s">
         <v>1004</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R15" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="T15" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="U15" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="V15" s="4" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -5055,8 +5369,23 @@
       <c r="Q16" s="7" t="s">
         <v>1068</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R16" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="S16" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="T16" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="U16" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="V16" s="4" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -5108,8 +5437,23 @@
       <c r="Q17" s="7" t="s">
         <v>1180</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R17" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="S17" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="T17" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="U17" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="V17" s="4" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -5161,8 +5505,23 @@
       <c r="Q18" s="7" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R18" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="S18" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="T18" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="U18" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="V18" s="4" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -5214,8 +5573,23 @@
       <c r="Q19" s="7" t="s">
         <v>1082</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R19" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="S19" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="T19" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="U19" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="V19" s="4" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -5267,8 +5641,23 @@
       <c r="Q20" s="7" t="s">
         <v>946</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R20" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="S20" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="T20" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="U20" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="V20" s="4" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -5320,8 +5709,23 @@
       <c r="Q21" s="7" t="s">
         <v>1218</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R21" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="S21" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="T21" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="U21" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="V21" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -5373,8 +5777,23 @@
       <c r="Q22" s="7" t="s">
         <v>1216</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R22" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="S22" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="T22" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="U22" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="V22" s="4" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -5426,8 +5845,23 @@
       <c r="Q23" s="7" t="s">
         <v>1172</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R23" s="4" t="s">
+        <v>705</v>
+      </c>
+      <c r="S23" s="4" t="s">
+        <v>705</v>
+      </c>
+      <c r="T23" s="4" t="s">
+        <v>705</v>
+      </c>
+      <c r="U23" s="4" t="s">
+        <v>705</v>
+      </c>
+      <c r="V23" s="4" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -5479,8 +5913,23 @@
       <c r="Q24" s="7" t="s">
         <v>952</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R24" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="S24" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="T24" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="U24" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="V24" s="4" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -5532,8 +5981,23 @@
       <c r="Q25" s="7" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R25" s="4" t="s">
+        <v>707</v>
+      </c>
+      <c r="S25" s="4" t="s">
+        <v>707</v>
+      </c>
+      <c r="T25" s="4" t="s">
+        <v>707</v>
+      </c>
+      <c r="U25" s="4" t="s">
+        <v>707</v>
+      </c>
+      <c r="V25" s="4" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -5585,8 +6049,23 @@
       <c r="Q26" s="7" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R26" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="S26" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="T26" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="U26" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="V26" s="4" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -5638,8 +6117,23 @@
       <c r="Q27" s="7" t="s">
         <v>1034</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R27" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="S27" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="T27" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="U27" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="V27" s="4" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -5691,8 +6185,23 @@
       <c r="Q28" s="7" t="s">
         <v>1118</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R28" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="S28" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="T28" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="U28" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="V28" s="4" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -5744,8 +6253,23 @@
       <c r="Q29" s="7" t="s">
         <v>1026</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R29" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="S29" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="T29" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="U29" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="V29" s="4" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -5797,8 +6321,23 @@
       <c r="Q30" s="7" t="s">
         <v>1043</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R30" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="S30" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="T30" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="U30" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="V30" s="4" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -5850,8 +6389,23 @@
       <c r="Q31" s="7" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R31" s="4" t="s">
+        <v>713</v>
+      </c>
+      <c r="S31" s="4" t="s">
+        <v>713</v>
+      </c>
+      <c r="T31" s="4" t="s">
+        <v>713</v>
+      </c>
+      <c r="U31" s="4" t="s">
+        <v>713</v>
+      </c>
+      <c r="V31" s="4" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -5903,8 +6457,23 @@
       <c r="Q32" s="7" t="s">
         <v>956</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R32" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="S32" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="T32" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="U32" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="V32" s="4" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -5956,8 +6525,23 @@
       <c r="Q33" s="7" t="s">
         <v>1211</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R33" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="S33" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="T33" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="U33" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="V33" s="4" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -6009,8 +6593,23 @@
       <c r="Q34" s="7" t="s">
         <v>994</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R34" s="4" t="s">
+        <v>716</v>
+      </c>
+      <c r="S34" s="4" t="s">
+        <v>716</v>
+      </c>
+      <c r="T34" s="4" t="s">
+        <v>716</v>
+      </c>
+      <c r="U34" s="4" t="s">
+        <v>716</v>
+      </c>
+      <c r="V34" s="4" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -6062,8 +6661,23 @@
       <c r="Q35" s="7" t="s">
         <v>916</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R35" s="4" t="s">
+        <v>717</v>
+      </c>
+      <c r="S35" s="4" t="s">
+        <v>717</v>
+      </c>
+      <c r="T35" s="4" t="s">
+        <v>717</v>
+      </c>
+      <c r="U35" s="4" t="s">
+        <v>717</v>
+      </c>
+      <c r="V35" s="4" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -6115,8 +6729,23 @@
       <c r="Q36" s="7" t="s">
         <v>917</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R36" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="S36" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="T36" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="U36" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="V36" s="4" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -6168,8 +6797,23 @@
       <c r="Q37" s="7" t="s">
         <v>1071</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R37" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="S37" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="T37" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="U37" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="V37" s="4" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -6221,8 +6865,23 @@
       <c r="Q38" s="7" t="s">
         <v>1224</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R38" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="S38" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="T38" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="U38" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="V38" s="4" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -6274,8 +6933,23 @@
       <c r="Q39" s="7" t="s">
         <v>1151</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R39" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="S39" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="T39" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="U39" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="V39" s="4" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -6327,8 +7001,23 @@
       <c r="Q40" s="7" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R40" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="S40" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="T40" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="U40" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="V40" s="4" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -6380,8 +7069,23 @@
       <c r="Q41" s="7" t="s">
         <v>1109</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R41" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="S41" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="T41" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="U41" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="V41" s="4" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -6433,8 +7137,23 @@
       <c r="Q42" s="7" t="s">
         <v>990</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R42" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="S42" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="T42" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="U42" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="V42" s="4" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -6486,8 +7205,23 @@
       <c r="Q43" s="7" t="s">
         <v>1187</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R43" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="S43" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="T43" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="U43" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="V43" s="4" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -6539,8 +7273,23 @@
       <c r="Q44" s="7" t="s">
         <v>1154</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R44" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="S44" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="T44" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="U44" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="V44" s="4" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -6592,8 +7341,23 @@
       <c r="Q45" s="7" t="s">
         <v>1169</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R45" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="S45" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="T45" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="U45" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="V45" s="4" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -6645,8 +7409,23 @@
       <c r="Q46" s="7" t="s">
         <v>1139</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R46" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="S46" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="T46" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="U46" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="V46" s="4" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -6698,8 +7477,23 @@
       <c r="Q47" s="7" t="s">
         <v>1012</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R47" s="4" t="s">
+        <v>729</v>
+      </c>
+      <c r="S47" s="4" t="s">
+        <v>729</v>
+      </c>
+      <c r="T47" s="4" t="s">
+        <v>729</v>
+      </c>
+      <c r="U47" s="4" t="s">
+        <v>729</v>
+      </c>
+      <c r="V47" s="4" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -6751,8 +7545,23 @@
       <c r="Q48" s="7" t="s">
         <v>962</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R48" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="S48" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="T48" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="U48" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="V48" s="4" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -6804,8 +7613,23 @@
       <c r="Q49" s="7" t="s">
         <v>982</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R49" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="S49" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="T49" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="U49" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="V49" s="4" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -6857,8 +7681,23 @@
       <c r="Q50" s="7" t="s">
         <v>1014</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R50" s="4" t="s">
+        <v>732</v>
+      </c>
+      <c r="S50" s="4" t="s">
+        <v>732</v>
+      </c>
+      <c r="T50" s="4" t="s">
+        <v>732</v>
+      </c>
+      <c r="U50" s="4" t="s">
+        <v>732</v>
+      </c>
+      <c r="V50" s="4" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -6910,8 +7749,23 @@
       <c r="Q51" s="7" t="s">
         <v>1149</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R51" s="4" t="s">
+        <v>733</v>
+      </c>
+      <c r="S51" s="4" t="s">
+        <v>733</v>
+      </c>
+      <c r="T51" s="4" t="s">
+        <v>733</v>
+      </c>
+      <c r="U51" s="4" t="s">
+        <v>733</v>
+      </c>
+      <c r="V51" s="4" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -6963,8 +7817,23 @@
       <c r="Q52" s="7" t="s">
         <v>1065</v>
       </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R52" s="4" t="s">
+        <v>734</v>
+      </c>
+      <c r="S52" s="4" t="s">
+        <v>734</v>
+      </c>
+      <c r="T52" s="4" t="s">
+        <v>734</v>
+      </c>
+      <c r="U52" s="4" t="s">
+        <v>734</v>
+      </c>
+      <c r="V52" s="4" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -7016,8 +7885,23 @@
       <c r="Q53" s="7" t="s">
         <v>931</v>
       </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R53" s="4" t="s">
+        <v>735</v>
+      </c>
+      <c r="S53" s="4" t="s">
+        <v>735</v>
+      </c>
+      <c r="T53" s="4" t="s">
+        <v>735</v>
+      </c>
+      <c r="U53" s="4" t="s">
+        <v>735</v>
+      </c>
+      <c r="V53" s="4" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -7069,8 +7953,23 @@
       <c r="Q54" s="7" t="s">
         <v>1155</v>
       </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R54" s="4" t="s">
+        <v>736</v>
+      </c>
+      <c r="S54" s="4" t="s">
+        <v>736</v>
+      </c>
+      <c r="T54" s="4" t="s">
+        <v>736</v>
+      </c>
+      <c r="U54" s="4" t="s">
+        <v>736</v>
+      </c>
+      <c r="V54" s="4" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -7122,8 +8021,23 @@
       <c r="Q55" s="7" t="s">
         <v>1064</v>
       </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R55" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="S55" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="T55" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="U55" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="V55" s="4" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -7175,8 +8089,23 @@
       <c r="Q56" s="7" t="s">
         <v>1220</v>
       </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R56" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="S56" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="T56" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="U56" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="V56" s="4" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -7228,8 +8157,23 @@
       <c r="Q57" s="7" t="s">
         <v>961</v>
       </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R57" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="S57" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="T57" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="U57" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="V57" s="4" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -7281,8 +8225,23 @@
       <c r="Q58" s="7" t="s">
         <v>1210</v>
       </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R58" s="4" t="s">
+        <v>740</v>
+      </c>
+      <c r="S58" s="4" t="s">
+        <v>740</v>
+      </c>
+      <c r="T58" s="4" t="s">
+        <v>740</v>
+      </c>
+      <c r="U58" s="4" t="s">
+        <v>740</v>
+      </c>
+      <c r="V58" s="4" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -7334,8 +8293,23 @@
       <c r="Q59" s="7" t="s">
         <v>926</v>
       </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R59" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="S59" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="T59" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="U59" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="V59" s="4" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -7387,8 +8361,23 @@
       <c r="Q60" s="7" t="s">
         <v>1087</v>
       </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R60" s="4" t="s">
+        <v>742</v>
+      </c>
+      <c r="S60" s="4" t="s">
+        <v>742</v>
+      </c>
+      <c r="T60" s="4" t="s">
+        <v>742</v>
+      </c>
+      <c r="U60" s="4" t="s">
+        <v>742</v>
+      </c>
+      <c r="V60" s="4" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -7440,8 +8429,23 @@
       <c r="Q61" s="7" t="s">
         <v>1052</v>
       </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R61" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="S61" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="T61" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="U61" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="V61" s="4" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -7493,8 +8497,23 @@
       <c r="Q62" s="7" t="s">
         <v>944</v>
       </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R62" s="4" t="s">
+        <v>744</v>
+      </c>
+      <c r="S62" s="4" t="s">
+        <v>744</v>
+      </c>
+      <c r="T62" s="4" t="s">
+        <v>744</v>
+      </c>
+      <c r="U62" s="4" t="s">
+        <v>744</v>
+      </c>
+      <c r="V62" s="4" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -7546,8 +8565,23 @@
       <c r="Q63" s="7" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R63" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="S63" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="T63" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="U63" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="V63" s="4" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -7599,8 +8633,23 @@
       <c r="Q64" s="7" t="s">
         <v>1126</v>
       </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R64" s="4" t="s">
+        <v>746</v>
+      </c>
+      <c r="S64" s="4" t="s">
+        <v>746</v>
+      </c>
+      <c r="T64" s="4" t="s">
+        <v>746</v>
+      </c>
+      <c r="U64" s="4" t="s">
+        <v>746</v>
+      </c>
+      <c r="V64" s="4" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -7652,8 +8701,23 @@
       <c r="Q65" s="7" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R65" s="4" t="s">
+        <v>747</v>
+      </c>
+      <c r="S65" s="4" t="s">
+        <v>747</v>
+      </c>
+      <c r="T65" s="4" t="s">
+        <v>747</v>
+      </c>
+      <c r="U65" s="4" t="s">
+        <v>747</v>
+      </c>
+      <c r="V65" s="4" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -7705,8 +8769,23 @@
       <c r="Q66" s="7" t="s">
         <v>1168</v>
       </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R66" s="4" t="s">
+        <v>748</v>
+      </c>
+      <c r="S66" s="4" t="s">
+        <v>748</v>
+      </c>
+      <c r="T66" s="4" t="s">
+        <v>748</v>
+      </c>
+      <c r="U66" s="4" t="s">
+        <v>748</v>
+      </c>
+      <c r="V66" s="4" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -7758,8 +8837,23 @@
       <c r="Q67" s="7" t="s">
         <v>1242</v>
       </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R67" s="4" t="s">
+        <v>749</v>
+      </c>
+      <c r="S67" s="4" t="s">
+        <v>749</v>
+      </c>
+      <c r="T67" s="4" t="s">
+        <v>749</v>
+      </c>
+      <c r="U67" s="4" t="s">
+        <v>749</v>
+      </c>
+      <c r="V67" s="4" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -7811,8 +8905,23 @@
       <c r="Q68" s="7" t="s">
         <v>1050</v>
       </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R68" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="S68" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="T68" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="U68" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="V68" s="4" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -7864,8 +8973,23 @@
       <c r="Q69" s="7" t="s">
         <v>1207</v>
       </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R69" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="S69" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="T69" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="U69" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="V69" s="4" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -7917,8 +9041,23 @@
       <c r="Q70" s="7" t="s">
         <v>1082</v>
       </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R70" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="S70" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="T70" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="U70" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="V70" s="4" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -7970,8 +9109,23 @@
       <c r="Q71" s="7" t="s">
         <v>929</v>
       </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R71" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="S71" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="T71" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="U71" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="V71" s="4" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -8023,8 +9177,23 @@
       <c r="Q72" s="7" t="s">
         <v>1074</v>
       </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R72" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="S72" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="T72" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="U72" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="V72" s="4" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -8076,8 +9245,23 @@
       <c r="Q73" s="7" t="s">
         <v>978</v>
       </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R73" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="S73" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="T73" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="U73" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="V73" s="4" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -8129,8 +9313,23 @@
       <c r="Q74" s="7" t="s">
         <v>1161</v>
       </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R74" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="S74" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="T74" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="U74" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="V74" s="4" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -8182,8 +9381,23 @@
       <c r="Q75" s="7" t="s">
         <v>1237</v>
       </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R75" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="S75" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="T75" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="U75" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="V75" s="4" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -8235,8 +9449,23 @@
       <c r="Q76" s="7" t="s">
         <v>1219</v>
       </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R76" s="4" t="s">
+        <v>759</v>
+      </c>
+      <c r="S76" s="4" t="s">
+        <v>759</v>
+      </c>
+      <c r="T76" s="4" t="s">
+        <v>759</v>
+      </c>
+      <c r="U76" s="4" t="s">
+        <v>759</v>
+      </c>
+      <c r="V76" s="4" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -8288,8 +9517,23 @@
       <c r="Q77" s="7" t="s">
         <v>1181</v>
       </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R77" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="S77" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="T77" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="U77" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="V77" s="4" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -8341,8 +9585,23 @@
       <c r="Q78" s="7" t="s">
         <v>1136</v>
       </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R78" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="S78" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="T78" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="U78" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="V78" s="4" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -8394,8 +9653,23 @@
       <c r="Q79" s="7" t="s">
         <v>1246</v>
       </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R79" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="S79" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="T79" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="U79" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="V79" s="4" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -8447,8 +9721,23 @@
       <c r="Q80" s="7" t="s">
         <v>934</v>
       </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R80" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="S80" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="T80" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="U80" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="V80" s="4" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -8500,8 +9789,23 @@
       <c r="Q81" s="7" t="s">
         <v>980</v>
       </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R81" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="S81" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="T81" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="U81" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="V81" s="4" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -8553,8 +9857,23 @@
       <c r="Q82" s="7" t="s">
         <v>1141</v>
       </c>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R82" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="S82" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="T82" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="U82" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="V82" s="4" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -8606,8 +9925,23 @@
       <c r="Q83" s="7" t="s">
         <v>1046</v>
       </c>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R83" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="S83" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="T83" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="U83" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="V83" s="4" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -8659,8 +9993,23 @@
       <c r="Q84" s="7" t="s">
         <v>909</v>
       </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R84" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="S84" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="T84" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="U84" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="V84" s="4" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -8712,8 +10061,23 @@
       <c r="Q85" s="7" t="s">
         <v>1097</v>
       </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R85" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="S85" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="T85" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="U85" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="V85" s="4" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -8765,8 +10129,23 @@
       <c r="Q86" s="7" t="s">
         <v>1038</v>
       </c>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R86" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="S86" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="T86" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="U86" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="V86" s="4" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -8818,8 +10197,23 @@
       <c r="Q87" s="7" t="s">
         <v>1208</v>
       </c>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R87" s="4" t="s">
+        <v>770</v>
+      </c>
+      <c r="S87" s="4" t="s">
+        <v>770</v>
+      </c>
+      <c r="T87" s="4" t="s">
+        <v>770</v>
+      </c>
+      <c r="U87" s="4" t="s">
+        <v>770</v>
+      </c>
+      <c r="V87" s="4" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -8871,8 +10265,23 @@
       <c r="Q88" s="7" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R88" s="4" t="s">
+        <v>771</v>
+      </c>
+      <c r="S88" s="4" t="s">
+        <v>771</v>
+      </c>
+      <c r="T88" s="4" t="s">
+        <v>771</v>
+      </c>
+      <c r="U88" s="4" t="s">
+        <v>771</v>
+      </c>
+      <c r="V88" s="4" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -8924,8 +10333,23 @@
       <c r="Q89" s="7" t="s">
         <v>1033</v>
       </c>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R89" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="S89" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="T89" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="U89" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="V89" s="4" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -8977,8 +10401,23 @@
       <c r="Q90" s="7" t="s">
         <v>1238</v>
       </c>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R90" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="S90" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="T90" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="U90" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="V90" s="4" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -9030,8 +10469,23 @@
       <c r="Q91" s="7" t="s">
         <v>1243</v>
       </c>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R91" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="S91" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="T91" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="U91" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="V91" s="4" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -9083,8 +10537,23 @@
       <c r="Q92" s="7" t="s">
         <v>1007</v>
       </c>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R92" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="S92" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="T92" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="U92" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="V92" s="4" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -9136,8 +10605,23 @@
       <c r="Q93" s="7" t="s">
         <v>941</v>
       </c>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R93" s="4" t="s">
+        <v>776</v>
+      </c>
+      <c r="S93" s="4" t="s">
+        <v>776</v>
+      </c>
+      <c r="T93" s="4" t="s">
+        <v>776</v>
+      </c>
+      <c r="U93" s="4" t="s">
+        <v>776</v>
+      </c>
+      <c r="V93" s="4" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -9189,8 +10673,23 @@
       <c r="Q94" s="7" t="s">
         <v>1098</v>
       </c>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R94" s="4" t="s">
+        <v>777</v>
+      </c>
+      <c r="S94" s="4" t="s">
+        <v>777</v>
+      </c>
+      <c r="T94" s="4" t="s">
+        <v>777</v>
+      </c>
+      <c r="U94" s="4" t="s">
+        <v>777</v>
+      </c>
+      <c r="V94" s="4" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -9242,8 +10741,23 @@
       <c r="Q95" s="7" t="s">
         <v>1054</v>
       </c>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R95" s="4" t="s">
+        <v>778</v>
+      </c>
+      <c r="S95" s="4" t="s">
+        <v>778</v>
+      </c>
+      <c r="T95" s="4" t="s">
+        <v>778</v>
+      </c>
+      <c r="U95" s="4" t="s">
+        <v>778</v>
+      </c>
+      <c r="V95" s="4" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -9295,8 +10809,23 @@
       <c r="Q96" s="7" t="s">
         <v>964</v>
       </c>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R96" s="4" t="s">
+        <v>779</v>
+      </c>
+      <c r="S96" s="4" t="s">
+        <v>779</v>
+      </c>
+      <c r="T96" s="4" t="s">
+        <v>779</v>
+      </c>
+      <c r="U96" s="4" t="s">
+        <v>779</v>
+      </c>
+      <c r="V96" s="4" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -9348,8 +10877,23 @@
       <c r="Q97" s="7" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R97" s="4" t="s">
+        <v>780</v>
+      </c>
+      <c r="S97" s="4" t="s">
+        <v>780</v>
+      </c>
+      <c r="T97" s="4" t="s">
+        <v>780</v>
+      </c>
+      <c r="U97" s="4" t="s">
+        <v>780</v>
+      </c>
+      <c r="V97" s="4" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -9401,8 +10945,23 @@
       <c r="Q98" s="7" t="s">
         <v>977</v>
       </c>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R98" s="4" t="s">
+        <v>781</v>
+      </c>
+      <c r="S98" s="4" t="s">
+        <v>781</v>
+      </c>
+      <c r="T98" s="4" t="s">
+        <v>781</v>
+      </c>
+      <c r="U98" s="4" t="s">
+        <v>781</v>
+      </c>
+      <c r="V98" s="4" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -9454,8 +11013,23 @@
       <c r="Q99" s="7" t="s">
         <v>1184</v>
       </c>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R99" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="S99" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="T99" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="U99" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="V99" s="4" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -9507,8 +11081,23 @@
       <c r="Q100" s="7" t="s">
         <v>921</v>
       </c>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R100" s="4" t="s">
+        <v>783</v>
+      </c>
+      <c r="S100" s="4" t="s">
+        <v>783</v>
+      </c>
+      <c r="T100" s="4" t="s">
+        <v>783</v>
+      </c>
+      <c r="U100" s="4" t="s">
+        <v>783</v>
+      </c>
+      <c r="V100" s="4" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -9560,8 +11149,23 @@
       <c r="Q101" s="7" t="s">
         <v>1039</v>
       </c>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R101" s="4" t="s">
+        <v>784</v>
+      </c>
+      <c r="S101" s="4" t="s">
+        <v>784</v>
+      </c>
+      <c r="T101" s="4" t="s">
+        <v>784</v>
+      </c>
+      <c r="U101" s="4" t="s">
+        <v>784</v>
+      </c>
+      <c r="V101" s="4" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="102" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -9613,8 +11217,23 @@
       <c r="Q102" s="7" t="s">
         <v>1190</v>
       </c>
-    </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R102" s="4" t="s">
+        <v>785</v>
+      </c>
+      <c r="S102" s="4" t="s">
+        <v>785</v>
+      </c>
+      <c r="T102" s="4" t="s">
+        <v>785</v>
+      </c>
+      <c r="U102" s="4" t="s">
+        <v>785</v>
+      </c>
+      <c r="V102" s="4" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="103" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -9666,8 +11285,23 @@
       <c r="Q103" s="7" t="s">
         <v>1178</v>
       </c>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R103" s="4" t="s">
+        <v>786</v>
+      </c>
+      <c r="S103" s="4" t="s">
+        <v>786</v>
+      </c>
+      <c r="T103" s="4" t="s">
+        <v>786</v>
+      </c>
+      <c r="U103" s="4" t="s">
+        <v>786</v>
+      </c>
+      <c r="V103" s="4" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="104" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>1227</v>
       </c>
@@ -9719,8 +11353,23 @@
       <c r="Q104" s="7" t="s">
         <v>1228</v>
       </c>
-    </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R104" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="S104" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="T104" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="U104" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="V104" s="4" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="105" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>103</v>
       </c>
@@ -9772,8 +11421,23 @@
       <c r="Q105" s="7" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R105" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="S105" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="T105" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="U105" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="V105" s="4" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="106" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>104</v>
       </c>
@@ -9825,8 +11489,23 @@
       <c r="Q106" s="7" t="s">
         <v>1100</v>
       </c>
-    </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R106" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="S106" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="T106" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="U106" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="V106" s="4" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="107" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>105</v>
       </c>
@@ -9878,8 +11557,23 @@
       <c r="Q107" s="7" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R107" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="S107" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="T107" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="U107" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="V107" s="4" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="108" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>106</v>
       </c>
@@ -9931,8 +11625,23 @@
       <c r="Q108" s="7" t="s">
         <v>1002</v>
       </c>
-    </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R108" s="4" t="s">
+        <v>791</v>
+      </c>
+      <c r="S108" s="4" t="s">
+        <v>791</v>
+      </c>
+      <c r="T108" s="4" t="s">
+        <v>791</v>
+      </c>
+      <c r="U108" s="4" t="s">
+        <v>791</v>
+      </c>
+      <c r="V108" s="4" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="109" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>107</v>
       </c>
@@ -9984,8 +11693,23 @@
       <c r="Q109" s="7" t="s">
         <v>1049</v>
       </c>
-    </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R109" s="4" t="s">
+        <v>792</v>
+      </c>
+      <c r="S109" s="4" t="s">
+        <v>792</v>
+      </c>
+      <c r="T109" s="4" t="s">
+        <v>792</v>
+      </c>
+      <c r="U109" s="4" t="s">
+        <v>792</v>
+      </c>
+      <c r="V109" s="4" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="110" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>108</v>
       </c>
@@ -10037,8 +11761,23 @@
       <c r="Q110" s="7" t="s">
         <v>1005</v>
       </c>
-    </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R110" s="4" t="s">
+        <v>793</v>
+      </c>
+      <c r="S110" s="4" t="s">
+        <v>793</v>
+      </c>
+      <c r="T110" s="4" t="s">
+        <v>793</v>
+      </c>
+      <c r="U110" s="4" t="s">
+        <v>793</v>
+      </c>
+      <c r="V110" s="4" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="111" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>109</v>
       </c>
@@ -10090,8 +11829,23 @@
       <c r="Q111" s="7" t="s">
         <v>1040</v>
       </c>
-    </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R111" s="4" t="s">
+        <v>794</v>
+      </c>
+      <c r="S111" s="4" t="s">
+        <v>794</v>
+      </c>
+      <c r="T111" s="4" t="s">
+        <v>794</v>
+      </c>
+      <c r="U111" s="4" t="s">
+        <v>794</v>
+      </c>
+      <c r="V111" s="4" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="112" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>110</v>
       </c>
@@ -10143,8 +11897,23 @@
       <c r="Q112" s="7" t="s">
         <v>1042</v>
       </c>
-    </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R112" s="4" t="s">
+        <v>795</v>
+      </c>
+      <c r="S112" s="4" t="s">
+        <v>795</v>
+      </c>
+      <c r="T112" s="4" t="s">
+        <v>795</v>
+      </c>
+      <c r="U112" s="4" t="s">
+        <v>795</v>
+      </c>
+      <c r="V112" s="4" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="113" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>898</v>
       </c>
@@ -10196,8 +11965,23 @@
       <c r="Q113" s="7" t="s">
         <v>906</v>
       </c>
-    </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R113" s="4" t="s">
+        <v>796</v>
+      </c>
+      <c r="S113" s="4" t="s">
+        <v>796</v>
+      </c>
+      <c r="T113" s="4" t="s">
+        <v>796</v>
+      </c>
+      <c r="U113" s="4" t="s">
+        <v>796</v>
+      </c>
+      <c r="V113" s="4" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="114" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>111</v>
       </c>
@@ -10249,8 +12033,23 @@
       <c r="Q114" s="7" t="s">
         <v>1060</v>
       </c>
-    </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R114" s="4" t="s">
+        <v>797</v>
+      </c>
+      <c r="S114" s="4" t="s">
+        <v>797</v>
+      </c>
+      <c r="T114" s="4" t="s">
+        <v>797</v>
+      </c>
+      <c r="U114" s="4" t="s">
+        <v>797</v>
+      </c>
+      <c r="V114" s="4" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="115" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>112</v>
       </c>
@@ -10302,8 +12101,23 @@
       <c r="Q115" s="7" t="s">
         <v>1234</v>
       </c>
-    </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R115" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="S115" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="T115" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="U115" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="V115" s="4" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="116" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>113</v>
       </c>
@@ -10355,8 +12169,23 @@
       <c r="Q116" s="7" t="s">
         <v>1131</v>
       </c>
-    </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R116" s="4" t="s">
+        <v>799</v>
+      </c>
+      <c r="S116" s="4" t="s">
+        <v>799</v>
+      </c>
+      <c r="T116" s="4" t="s">
+        <v>799</v>
+      </c>
+      <c r="U116" s="4" t="s">
+        <v>799</v>
+      </c>
+      <c r="V116" s="4" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="117" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>114</v>
       </c>
@@ -10408,8 +12237,23 @@
       <c r="Q117" s="7" t="s">
         <v>1214</v>
       </c>
-    </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R117" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="S117" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="T117" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="U117" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="V117" s="4" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="118" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>115</v>
       </c>
@@ -10461,8 +12305,23 @@
       <c r="Q118" s="7" t="s">
         <v>1075</v>
       </c>
-    </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R118" s="4" t="s">
+        <v>801</v>
+      </c>
+      <c r="S118" s="4" t="s">
+        <v>801</v>
+      </c>
+      <c r="T118" s="4" t="s">
+        <v>801</v>
+      </c>
+      <c r="U118" s="4" t="s">
+        <v>801</v>
+      </c>
+      <c r="V118" s="4" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="119" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>116</v>
       </c>
@@ -10514,8 +12373,23 @@
       <c r="Q119" s="7" t="s">
         <v>996</v>
       </c>
-    </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R119" s="4" t="s">
+        <v>802</v>
+      </c>
+      <c r="S119" s="4" t="s">
+        <v>802</v>
+      </c>
+      <c r="T119" s="4" t="s">
+        <v>802</v>
+      </c>
+      <c r="U119" s="4" t="s">
+        <v>802</v>
+      </c>
+      <c r="V119" s="4" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="120" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>117</v>
       </c>
@@ -10567,8 +12441,23 @@
       <c r="Q120" s="7" t="s">
         <v>1107</v>
       </c>
-    </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R120" s="4" t="s">
+        <v>803</v>
+      </c>
+      <c r="S120" s="4" t="s">
+        <v>803</v>
+      </c>
+      <c r="T120" s="4" t="s">
+        <v>803</v>
+      </c>
+      <c r="U120" s="4" t="s">
+        <v>803</v>
+      </c>
+      <c r="V120" s="4" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="121" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>118</v>
       </c>
@@ -10620,8 +12509,23 @@
       <c r="Q121" s="7" t="s">
         <v>923</v>
       </c>
-    </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R121" s="4" t="s">
+        <v>804</v>
+      </c>
+      <c r="S121" s="4" t="s">
+        <v>804</v>
+      </c>
+      <c r="T121" s="4" t="s">
+        <v>804</v>
+      </c>
+      <c r="U121" s="4" t="s">
+        <v>804</v>
+      </c>
+      <c r="V121" s="4" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="122" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>119</v>
       </c>
@@ -10673,8 +12577,23 @@
       <c r="Q122" s="7" t="s">
         <v>1018</v>
       </c>
-    </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R122" s="4" t="s">
+        <v>805</v>
+      </c>
+      <c r="S122" s="4" t="s">
+        <v>805</v>
+      </c>
+      <c r="T122" s="4" t="s">
+        <v>805</v>
+      </c>
+      <c r="U122" s="4" t="s">
+        <v>805</v>
+      </c>
+      <c r="V122" s="4" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="123" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>120</v>
       </c>
@@ -10726,8 +12645,23 @@
       <c r="Q123" s="7" t="s">
         <v>1066</v>
       </c>
-    </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R123" s="4" t="s">
+        <v>806</v>
+      </c>
+      <c r="S123" s="4" t="s">
+        <v>806</v>
+      </c>
+      <c r="T123" s="4" t="s">
+        <v>806</v>
+      </c>
+      <c r="U123" s="4" t="s">
+        <v>806</v>
+      </c>
+      <c r="V123" s="4" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="124" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>121</v>
       </c>
@@ -10779,8 +12713,23 @@
       <c r="Q124" s="7" t="s">
         <v>1235</v>
       </c>
-    </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R124" s="4" t="s">
+        <v>807</v>
+      </c>
+      <c r="S124" s="4" t="s">
+        <v>807</v>
+      </c>
+      <c r="T124" s="4" t="s">
+        <v>807</v>
+      </c>
+      <c r="U124" s="4" t="s">
+        <v>807</v>
+      </c>
+      <c r="V124" s="4" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="125" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>122</v>
       </c>
@@ -10832,8 +12781,23 @@
       <c r="Q125" s="7" t="s">
         <v>1175</v>
       </c>
-    </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R125" s="4" t="s">
+        <v>808</v>
+      </c>
+      <c r="S125" s="4" t="s">
+        <v>808</v>
+      </c>
+      <c r="T125" s="4" t="s">
+        <v>808</v>
+      </c>
+      <c r="U125" s="4" t="s">
+        <v>808</v>
+      </c>
+      <c r="V125" s="4" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="126" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>123</v>
       </c>
@@ -10885,8 +12849,23 @@
       <c r="Q126" s="7" t="s">
         <v>997</v>
       </c>
-    </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R126" s="4" t="s">
+        <v>809</v>
+      </c>
+      <c r="S126" s="4" t="s">
+        <v>809</v>
+      </c>
+      <c r="T126" s="4" t="s">
+        <v>809</v>
+      </c>
+      <c r="U126" s="4" t="s">
+        <v>809</v>
+      </c>
+      <c r="V126" s="4" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="127" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>124</v>
       </c>
@@ -10938,8 +12917,23 @@
       <c r="Q127" s="7" t="s">
         <v>1116</v>
       </c>
-    </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R127" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="S127" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="T127" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="U127" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="V127" s="4" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="128" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>125</v>
       </c>
@@ -10991,8 +12985,23 @@
       <c r="Q128" s="7" t="s">
         <v>1217</v>
       </c>
-    </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R128" s="4" t="s">
+        <v>811</v>
+      </c>
+      <c r="S128" s="4" t="s">
+        <v>811</v>
+      </c>
+      <c r="T128" s="4" t="s">
+        <v>811</v>
+      </c>
+      <c r="U128" s="4" t="s">
+        <v>811</v>
+      </c>
+      <c r="V128" s="4" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="129" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>126</v>
       </c>
@@ -11044,8 +13053,23 @@
       <c r="Q129" s="7" t="s">
         <v>945</v>
       </c>
-    </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R129" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="S129" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="T129" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="U129" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="V129" s="4" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="130" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>127</v>
       </c>
@@ -11097,8 +13121,23 @@
       <c r="Q130" s="7" t="s">
         <v>933</v>
       </c>
-    </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R130" s="4" t="s">
+        <v>813</v>
+      </c>
+      <c r="S130" s="4" t="s">
+        <v>813</v>
+      </c>
+      <c r="T130" s="4" t="s">
+        <v>813</v>
+      </c>
+      <c r="U130" s="4" t="s">
+        <v>813</v>
+      </c>
+      <c r="V130" s="4" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="131" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>128</v>
       </c>
@@ -11150,8 +13189,23 @@
       <c r="Q131" s="7" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R131" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="S131" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="T131" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="U131" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="V131" s="4" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="132" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>129</v>
       </c>
@@ -11203,8 +13257,23 @@
       <c r="Q132" s="7" t="s">
         <v>1230</v>
       </c>
-    </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R132" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="S132" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="T132" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="U132" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="V132" s="4" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="133" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>130</v>
       </c>
@@ -11256,8 +13325,23 @@
       <c r="Q133" s="7" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R133" s="4" t="s">
+        <v>816</v>
+      </c>
+      <c r="S133" s="4" t="s">
+        <v>816</v>
+      </c>
+      <c r="T133" s="4" t="s">
+        <v>816</v>
+      </c>
+      <c r="U133" s="4" t="s">
+        <v>816</v>
+      </c>
+      <c r="V133" s="4" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="134" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>131</v>
       </c>
@@ -11309,8 +13393,23 @@
       <c r="Q134" s="7" t="s">
         <v>1193</v>
       </c>
-    </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R134" s="4" t="s">
+        <v>817</v>
+      </c>
+      <c r="S134" s="4" t="s">
+        <v>817</v>
+      </c>
+      <c r="T134" s="4" t="s">
+        <v>817</v>
+      </c>
+      <c r="U134" s="4" t="s">
+        <v>817</v>
+      </c>
+      <c r="V134" s="4" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="135" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>132</v>
       </c>
@@ -11362,8 +13461,23 @@
       <c r="Q135" s="7" t="s">
         <v>1192</v>
       </c>
-    </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R135" s="4" t="s">
+        <v>818</v>
+      </c>
+      <c r="S135" s="4" t="s">
+        <v>818</v>
+      </c>
+      <c r="T135" s="4" t="s">
+        <v>818</v>
+      </c>
+      <c r="U135" s="4" t="s">
+        <v>818</v>
+      </c>
+      <c r="V135" s="4" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="136" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>133</v>
       </c>
@@ -11415,8 +13529,23 @@
       <c r="Q136" s="7" t="s">
         <v>1244</v>
       </c>
-    </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R136" s="4" t="s">
+        <v>819</v>
+      </c>
+      <c r="S136" s="4" t="s">
+        <v>819</v>
+      </c>
+      <c r="T136" s="4" t="s">
+        <v>819</v>
+      </c>
+      <c r="U136" s="4" t="s">
+        <v>819</v>
+      </c>
+      <c r="V136" s="4" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="137" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>134</v>
       </c>
@@ -11468,8 +13597,23 @@
       <c r="Q137" s="7" t="s">
         <v>995</v>
       </c>
-    </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R137" s="4" t="s">
+        <v>820</v>
+      </c>
+      <c r="S137" s="4" t="s">
+        <v>820</v>
+      </c>
+      <c r="T137" s="4" t="s">
+        <v>820</v>
+      </c>
+      <c r="U137" s="4" t="s">
+        <v>820</v>
+      </c>
+      <c r="V137" s="4" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="138" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>135</v>
       </c>
@@ -11521,8 +13665,23 @@
       <c r="Q138" s="7" t="s">
         <v>1152</v>
       </c>
-    </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R138" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="S138" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="T138" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="U138" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="V138" s="4" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="139" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>136</v>
       </c>
@@ -11574,8 +13733,23 @@
       <c r="Q139" s="7" t="s">
         <v>1125</v>
       </c>
-    </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R139" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="S139" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="T139" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="U139" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="V139" s="4" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="140" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>137</v>
       </c>
@@ -11627,8 +13801,23 @@
       <c r="Q140" s="7" t="s">
         <v>947</v>
       </c>
-    </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R140" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="S140" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="T140" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="U140" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="V140" s="4" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="141" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>138</v>
       </c>
@@ -11680,8 +13869,23 @@
       <c r="Q141" s="7" t="s">
         <v>951</v>
       </c>
-    </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R141" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="S141" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="T141" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="U141" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="V141" s="4" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="142" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>139</v>
       </c>
@@ -11733,8 +13937,23 @@
       <c r="Q142" s="7" t="s">
         <v>1090</v>
       </c>
-    </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R142" s="4" t="s">
+        <v>825</v>
+      </c>
+      <c r="S142" s="4" t="s">
+        <v>825</v>
+      </c>
+      <c r="T142" s="4" t="s">
+        <v>825</v>
+      </c>
+      <c r="U142" s="4" t="s">
+        <v>825</v>
+      </c>
+      <c r="V142" s="4" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="143" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>140</v>
       </c>
@@ -11786,8 +14005,23 @@
       <c r="Q143" s="7" t="s">
         <v>925</v>
       </c>
-    </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R143" s="4" t="s">
+        <v>826</v>
+      </c>
+      <c r="S143" s="4" t="s">
+        <v>826</v>
+      </c>
+      <c r="T143" s="4" t="s">
+        <v>826</v>
+      </c>
+      <c r="U143" s="4" t="s">
+        <v>826</v>
+      </c>
+      <c r="V143" s="4" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="144" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>141</v>
       </c>
@@ -11839,8 +14073,23 @@
       <c r="Q144" s="7" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R144" s="4" t="s">
+        <v>827</v>
+      </c>
+      <c r="S144" s="4" t="s">
+        <v>827</v>
+      </c>
+      <c r="T144" s="4" t="s">
+        <v>827</v>
+      </c>
+      <c r="U144" s="4" t="s">
+        <v>827</v>
+      </c>
+      <c r="V144" s="4" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="145" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>142</v>
       </c>
@@ -11892,8 +14141,23 @@
       <c r="Q145" s="7" t="s">
         <v>1171</v>
       </c>
-    </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R145" s="4" t="s">
+        <v>828</v>
+      </c>
+      <c r="S145" s="4" t="s">
+        <v>828</v>
+      </c>
+      <c r="T145" s="4" t="s">
+        <v>828</v>
+      </c>
+      <c r="U145" s="4" t="s">
+        <v>828</v>
+      </c>
+      <c r="V145" s="4" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="146" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>143</v>
       </c>
@@ -11945,8 +14209,23 @@
       <c r="Q146" s="7" t="s">
         <v>1134</v>
       </c>
-    </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R146" s="4" t="s">
+        <v>829</v>
+      </c>
+      <c r="S146" s="4" t="s">
+        <v>829</v>
+      </c>
+      <c r="T146" s="4" t="s">
+        <v>829</v>
+      </c>
+      <c r="U146" s="4" t="s">
+        <v>829</v>
+      </c>
+      <c r="V146" s="4" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="147" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>144</v>
       </c>
@@ -11998,8 +14277,23 @@
       <c r="Q147" s="7" t="s">
         <v>1201</v>
       </c>
-    </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R147" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="S147" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="T147" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="U147" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="V147" s="4" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="148" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>145</v>
       </c>
@@ -12051,8 +14345,23 @@
       <c r="Q148" s="7" t="s">
         <v>1233</v>
       </c>
-    </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R148" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="S148" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="T148" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="U148" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="V148" s="4" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="149" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>146</v>
       </c>
@@ -12104,8 +14413,23 @@
       <c r="Q149" s="7" t="s">
         <v>983</v>
       </c>
-    </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R149" s="4" t="s">
+        <v>832</v>
+      </c>
+      <c r="S149" s="4" t="s">
+        <v>832</v>
+      </c>
+      <c r="T149" s="4" t="s">
+        <v>832</v>
+      </c>
+      <c r="U149" s="4" t="s">
+        <v>832</v>
+      </c>
+      <c r="V149" s="4" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="150" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>147</v>
       </c>
@@ -12157,8 +14481,23 @@
       <c r="Q150" s="7" t="s">
         <v>1105</v>
       </c>
-    </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R150" s="4" t="s">
+        <v>833</v>
+      </c>
+      <c r="S150" s="4" t="s">
+        <v>833</v>
+      </c>
+      <c r="T150" s="4" t="s">
+        <v>833</v>
+      </c>
+      <c r="U150" s="4" t="s">
+        <v>833</v>
+      </c>
+      <c r="V150" s="4" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="151" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>148</v>
       </c>
@@ -12210,8 +14549,23 @@
       <c r="Q151" s="7" t="s">
         <v>988</v>
       </c>
-    </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R151" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="S151" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="T151" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="U151" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="V151" s="4" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="152" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>149</v>
       </c>
@@ -12263,8 +14617,23 @@
       <c r="Q152" s="7" t="s">
         <v>967</v>
       </c>
-    </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R152" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="S152" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="T152" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="U152" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="V152" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="153" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>150</v>
       </c>
@@ -12316,8 +14685,23 @@
       <c r="Q153" s="7" t="s">
         <v>993</v>
       </c>
-    </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R153" s="4" t="s">
+        <v>836</v>
+      </c>
+      <c r="S153" s="4" t="s">
+        <v>836</v>
+      </c>
+      <c r="T153" s="4" t="s">
+        <v>836</v>
+      </c>
+      <c r="U153" s="4" t="s">
+        <v>836</v>
+      </c>
+      <c r="V153" s="4" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="154" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>151</v>
       </c>
@@ -12369,8 +14753,23 @@
       <c r="Q154" s="7" t="s">
         <v>1120</v>
       </c>
-    </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R154" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="S154" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="T154" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="U154" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="V154" s="4" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="155" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>152</v>
       </c>
@@ -12422,8 +14821,23 @@
       <c r="Q155" s="7" t="s">
         <v>1209</v>
       </c>
-    </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R155" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="S155" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="T155" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="U155" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="V155" s="4" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="156" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>153</v>
       </c>
@@ -12475,8 +14889,23 @@
       <c r="Q156" s="7" t="s">
         <v>1044</v>
       </c>
-    </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R156" s="4" t="s">
+        <v>839</v>
+      </c>
+      <c r="S156" s="4" t="s">
+        <v>839</v>
+      </c>
+      <c r="T156" s="4" t="s">
+        <v>839</v>
+      </c>
+      <c r="U156" s="4" t="s">
+        <v>839</v>
+      </c>
+      <c r="V156" s="4" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="157" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>154</v>
       </c>
@@ -12528,8 +14957,23 @@
       <c r="Q157" s="7" t="s">
         <v>1028</v>
       </c>
-    </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R157" s="4" t="s">
+        <v>840</v>
+      </c>
+      <c r="S157" s="4" t="s">
+        <v>840</v>
+      </c>
+      <c r="T157" s="4" t="s">
+        <v>840</v>
+      </c>
+      <c r="U157" s="4" t="s">
+        <v>840</v>
+      </c>
+      <c r="V157" s="4" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="158" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>155</v>
       </c>
@@ -12581,8 +15025,23 @@
       <c r="Q158" s="7" t="s">
         <v>1157</v>
       </c>
-    </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R158" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="S158" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="T158" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="U158" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="V158" s="4" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="159" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>156</v>
       </c>
@@ -12634,8 +15093,23 @@
       <c r="Q159" s="7" t="s">
         <v>1035</v>
       </c>
-    </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R159" s="4" t="s">
+        <v>842</v>
+      </c>
+      <c r="S159" s="4" t="s">
+        <v>842</v>
+      </c>
+      <c r="T159" s="4" t="s">
+        <v>842</v>
+      </c>
+      <c r="U159" s="4" t="s">
+        <v>842</v>
+      </c>
+      <c r="V159" s="4" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="160" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>157</v>
       </c>
@@ -12687,8 +15161,23 @@
       <c r="Q160" s="7" t="s">
         <v>1162</v>
       </c>
-    </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R160" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="S160" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="T160" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="U160" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="V160" s="4" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="161" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>158</v>
       </c>
@@ -12740,8 +15229,23 @@
       <c r="Q161" s="7" t="s">
         <v>1226</v>
       </c>
-    </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R161" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="S161" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="T161" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="U161" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="V161" s="4" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="162" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>159</v>
       </c>
@@ -12793,8 +15297,23 @@
       <c r="Q162" s="7" t="s">
         <v>1221</v>
       </c>
-    </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R162" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="S162" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="T162" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="U162" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="V162" s="4" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="163" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>160</v>
       </c>
@@ -12846,8 +15365,23 @@
       <c r="Q163" s="7" t="s">
         <v>1182</v>
       </c>
-    </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R163" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="S163" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="T163" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="U163" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="V163" s="4" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="164" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>161</v>
       </c>
@@ -12899,8 +15433,23 @@
       <c r="Q164" s="7" t="s">
         <v>1073</v>
       </c>
-    </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R164" s="4" t="s">
+        <v>847</v>
+      </c>
+      <c r="S164" s="4" t="s">
+        <v>847</v>
+      </c>
+      <c r="T164" s="4" t="s">
+        <v>847</v>
+      </c>
+      <c r="U164" s="4" t="s">
+        <v>847</v>
+      </c>
+      <c r="V164" s="4" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="165" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>162</v>
       </c>
@@ -12952,8 +15501,23 @@
       <c r="Q165" s="7" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R165" s="4" t="s">
+        <v>848</v>
+      </c>
+      <c r="S165" s="4" t="s">
+        <v>848</v>
+      </c>
+      <c r="T165" s="4" t="s">
+        <v>848</v>
+      </c>
+      <c r="U165" s="4" t="s">
+        <v>848</v>
+      </c>
+      <c r="V165" s="4" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="166" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>163</v>
       </c>
@@ -13005,8 +15569,23 @@
       <c r="Q166" s="7" t="s">
         <v>1025</v>
       </c>
-    </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R166" s="4" t="s">
+        <v>849</v>
+      </c>
+      <c r="S166" s="4" t="s">
+        <v>849</v>
+      </c>
+      <c r="T166" s="4" t="s">
+        <v>849</v>
+      </c>
+      <c r="U166" s="4" t="s">
+        <v>849</v>
+      </c>
+      <c r="V166" s="4" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="167" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>164</v>
       </c>
@@ -13058,8 +15637,23 @@
       <c r="Q167" s="7" t="s">
         <v>1164</v>
       </c>
-    </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R167" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="S167" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="T167" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="U167" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="V167" s="4" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="168" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>165</v>
       </c>
@@ -13111,8 +15705,23 @@
       <c r="Q168" s="7" t="s">
         <v>1070</v>
       </c>
-    </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R168" s="4" t="s">
+        <v>851</v>
+      </c>
+      <c r="S168" s="4" t="s">
+        <v>851</v>
+      </c>
+      <c r="T168" s="4" t="s">
+        <v>851</v>
+      </c>
+      <c r="U168" s="4" t="s">
+        <v>851</v>
+      </c>
+      <c r="V168" s="4" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="169" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>166</v>
       </c>
@@ -13164,8 +15773,23 @@
       <c r="Q169" s="7" t="s">
         <v>927</v>
       </c>
-    </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R169" s="4" t="s">
+        <v>852</v>
+      </c>
+      <c r="S169" s="4" t="s">
+        <v>852</v>
+      </c>
+      <c r="T169" s="4" t="s">
+        <v>852</v>
+      </c>
+      <c r="U169" s="4" t="s">
+        <v>852</v>
+      </c>
+      <c r="V169" s="4" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="170" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>167</v>
       </c>
@@ -13217,8 +15841,23 @@
       <c r="Q170" s="7" t="s">
         <v>1088</v>
       </c>
-    </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R170" s="4" t="s">
+        <v>853</v>
+      </c>
+      <c r="S170" s="4" t="s">
+        <v>853</v>
+      </c>
+      <c r="T170" s="4" t="s">
+        <v>853</v>
+      </c>
+      <c r="U170" s="4" t="s">
+        <v>853</v>
+      </c>
+      <c r="V170" s="4" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="171" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>168</v>
       </c>
@@ -13270,8 +15909,23 @@
       <c r="Q171" s="7" t="s">
         <v>1229</v>
       </c>
-    </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R171" s="4" t="s">
+        <v>851</v>
+      </c>
+      <c r="S171" s="4" t="s">
+        <v>851</v>
+      </c>
+      <c r="T171" s="4" t="s">
+        <v>851</v>
+      </c>
+      <c r="U171" s="4" t="s">
+        <v>851</v>
+      </c>
+      <c r="V171" s="4" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="172" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>169</v>
       </c>
@@ -13323,8 +15977,23 @@
       <c r="Q172" s="7" t="s">
         <v>1023</v>
       </c>
-    </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R172" s="4" t="s">
+        <v>854</v>
+      </c>
+      <c r="S172" s="4" t="s">
+        <v>854</v>
+      </c>
+      <c r="T172" s="4" t="s">
+        <v>854</v>
+      </c>
+      <c r="U172" s="4" t="s">
+        <v>854</v>
+      </c>
+      <c r="V172" s="4" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="173" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>170</v>
       </c>
@@ -13376,8 +16045,23 @@
       <c r="Q173" s="7" t="s">
         <v>1225</v>
       </c>
-    </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R173" s="4" t="s">
+        <v>855</v>
+      </c>
+      <c r="S173" s="4" t="s">
+        <v>855</v>
+      </c>
+      <c r="T173" s="4" t="s">
+        <v>855</v>
+      </c>
+      <c r="U173" s="4" t="s">
+        <v>855</v>
+      </c>
+      <c r="V173" s="4" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="174" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>171</v>
       </c>
@@ -13429,8 +16113,23 @@
       <c r="Q174" s="7" t="s">
         <v>908</v>
       </c>
-    </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R174" s="4" t="s">
+        <v>856</v>
+      </c>
+      <c r="S174" s="4" t="s">
+        <v>856</v>
+      </c>
+      <c r="T174" s="4" t="s">
+        <v>856</v>
+      </c>
+      <c r="U174" s="4" t="s">
+        <v>856</v>
+      </c>
+      <c r="V174" s="4" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="175" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>172</v>
       </c>
@@ -13482,8 +16181,23 @@
       <c r="Q175" s="7" t="s">
         <v>920</v>
       </c>
-    </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R175" s="4" t="s">
+        <v>857</v>
+      </c>
+      <c r="S175" s="4" t="s">
+        <v>857</v>
+      </c>
+      <c r="T175" s="4" t="s">
+        <v>857</v>
+      </c>
+      <c r="U175" s="4" t="s">
+        <v>857</v>
+      </c>
+      <c r="V175" s="4" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="176" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>858</v>
       </c>
@@ -13535,8 +16249,23 @@
       <c r="Q176" s="7" t="s">
         <v>1119</v>
       </c>
-    </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R176" s="4" t="s">
+        <v>859</v>
+      </c>
+      <c r="S176" s="4" t="s">
+        <v>859</v>
+      </c>
+      <c r="T176" s="4" t="s">
+        <v>859</v>
+      </c>
+      <c r="U176" s="4" t="s">
+        <v>859</v>
+      </c>
+      <c r="V176" s="4" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="177" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>173</v>
       </c>
@@ -13588,8 +16317,23 @@
       <c r="Q177" s="7" t="s">
         <v>957</v>
       </c>
-    </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R177" s="4" t="s">
+        <v>860</v>
+      </c>
+      <c r="S177" s="4" t="s">
+        <v>860</v>
+      </c>
+      <c r="T177" s="4" t="s">
+        <v>860</v>
+      </c>
+      <c r="U177" s="4" t="s">
+        <v>860</v>
+      </c>
+      <c r="V177" s="4" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="178" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>174</v>
       </c>
@@ -13641,8 +16385,23 @@
       <c r="Q178" s="7" t="s">
         <v>1170</v>
       </c>
-    </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R178" s="4" t="s">
+        <v>861</v>
+      </c>
+      <c r="S178" s="4" t="s">
+        <v>861</v>
+      </c>
+      <c r="T178" s="4" t="s">
+        <v>861</v>
+      </c>
+      <c r="U178" s="4" t="s">
+        <v>861</v>
+      </c>
+      <c r="V178" s="4" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="179" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>175</v>
       </c>
@@ -13694,8 +16453,23 @@
       <c r="Q179" s="7" t="s">
         <v>1081</v>
       </c>
-    </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R179" s="4" t="s">
+        <v>862</v>
+      </c>
+      <c r="S179" s="4" t="s">
+        <v>862</v>
+      </c>
+      <c r="T179" s="4" t="s">
+        <v>862</v>
+      </c>
+      <c r="U179" s="4" t="s">
+        <v>862</v>
+      </c>
+      <c r="V179" s="4" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="180" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>176</v>
       </c>
@@ -13747,8 +16521,23 @@
       <c r="Q180" s="7" t="s">
         <v>1135</v>
       </c>
-    </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R180" s="4" t="s">
+        <v>863</v>
+      </c>
+      <c r="S180" s="4" t="s">
+        <v>863</v>
+      </c>
+      <c r="T180" s="4" t="s">
+        <v>863</v>
+      </c>
+      <c r="U180" s="4" t="s">
+        <v>863</v>
+      </c>
+      <c r="V180" s="4" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="181" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>177</v>
       </c>
@@ -13800,8 +16589,23 @@
       <c r="Q181" s="7" t="s">
         <v>1121</v>
       </c>
-    </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R181" s="4" t="s">
+        <v>864</v>
+      </c>
+      <c r="S181" s="4" t="s">
+        <v>864</v>
+      </c>
+      <c r="T181" s="4" t="s">
+        <v>864</v>
+      </c>
+      <c r="U181" s="4" t="s">
+        <v>864</v>
+      </c>
+      <c r="V181" s="4" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="182" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>178</v>
       </c>
@@ -13853,8 +16657,23 @@
       <c r="Q182" s="7" t="s">
         <v>1199</v>
       </c>
-    </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R182" s="4" t="s">
+        <v>865</v>
+      </c>
+      <c r="S182" s="4" t="s">
+        <v>865</v>
+      </c>
+      <c r="T182" s="4" t="s">
+        <v>865</v>
+      </c>
+      <c r="U182" s="4" t="s">
+        <v>865</v>
+      </c>
+      <c r="V182" s="4" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="183" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>179</v>
       </c>
@@ -13906,8 +16725,23 @@
       <c r="Q183" s="7" t="s">
         <v>1215</v>
       </c>
-    </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R183" s="4" t="s">
+        <v>866</v>
+      </c>
+      <c r="S183" s="4" t="s">
+        <v>866</v>
+      </c>
+      <c r="T183" s="4" t="s">
+        <v>866</v>
+      </c>
+      <c r="U183" s="4" t="s">
+        <v>866</v>
+      </c>
+      <c r="V183" s="4" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="184" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>180</v>
       </c>
@@ -13959,8 +16793,23 @@
       <c r="Q184" s="7" t="s">
         <v>1176</v>
       </c>
-    </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R184" s="4" t="s">
+        <v>867</v>
+      </c>
+      <c r="S184" s="4" t="s">
+        <v>867</v>
+      </c>
+      <c r="T184" s="4" t="s">
+        <v>867</v>
+      </c>
+      <c r="U184" s="4" t="s">
+        <v>867</v>
+      </c>
+      <c r="V184" s="4" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="185" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>181</v>
       </c>
@@ -14012,8 +16861,23 @@
       <c r="Q185" s="7" t="s">
         <v>1185</v>
       </c>
-    </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R185" s="4" t="s">
+        <v>868</v>
+      </c>
+      <c r="S185" s="4" t="s">
+        <v>868</v>
+      </c>
+      <c r="T185" s="4" t="s">
+        <v>868</v>
+      </c>
+      <c r="U185" s="4" t="s">
+        <v>868</v>
+      </c>
+      <c r="V185" s="4" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="186" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>182</v>
       </c>
@@ -14065,8 +16929,23 @@
       <c r="Q186" s="7" t="s">
         <v>1096</v>
       </c>
-    </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R186" s="4" t="s">
+        <v>870</v>
+      </c>
+      <c r="S186" s="4" t="s">
+        <v>870</v>
+      </c>
+      <c r="T186" s="4" t="s">
+        <v>870</v>
+      </c>
+      <c r="U186" s="4" t="s">
+        <v>870</v>
+      </c>
+      <c r="V186" s="4" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="187" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>183</v>
       </c>
@@ -14118,8 +16997,23 @@
       <c r="Q187" s="7" t="s">
         <v>1015</v>
       </c>
-    </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R187" s="4" t="s">
+        <v>869</v>
+      </c>
+      <c r="S187" s="4" t="s">
+        <v>869</v>
+      </c>
+      <c r="T187" s="4" t="s">
+        <v>869</v>
+      </c>
+      <c r="U187" s="4" t="s">
+        <v>869</v>
+      </c>
+      <c r="V187" s="4" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="188" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>184</v>
       </c>
@@ -14171,8 +17065,23 @@
       <c r="Q188" s="7" t="s">
         <v>1160</v>
       </c>
-    </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R188" s="4" t="s">
+        <v>871</v>
+      </c>
+      <c r="S188" s="4" t="s">
+        <v>871</v>
+      </c>
+      <c r="T188" s="4" t="s">
+        <v>871</v>
+      </c>
+      <c r="U188" s="4" t="s">
+        <v>871</v>
+      </c>
+      <c r="V188" s="4" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="189" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>185</v>
       </c>
@@ -14224,8 +17133,23 @@
       <c r="Q189" s="7" t="s">
         <v>1196</v>
       </c>
-    </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R189" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="S189" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="T189" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="U189" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="V189" s="4" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="190" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>186</v>
       </c>
@@ -14277,8 +17201,23 @@
       <c r="Q190" s="7" t="s">
         <v>1123</v>
       </c>
-    </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R190" s="4" t="s">
+        <v>873</v>
+      </c>
+      <c r="S190" s="4" t="s">
+        <v>873</v>
+      </c>
+      <c r="T190" s="4" t="s">
+        <v>873</v>
+      </c>
+      <c r="U190" s="4" t="s">
+        <v>873</v>
+      </c>
+      <c r="V190" s="4" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="191" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>187</v>
       </c>
@@ -14330,8 +17269,23 @@
       <c r="Q191" s="7" t="s">
         <v>1147</v>
       </c>
-    </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R191" s="4" t="s">
+        <v>874</v>
+      </c>
+      <c r="S191" s="4" t="s">
+        <v>874</v>
+      </c>
+      <c r="T191" s="4" t="s">
+        <v>874</v>
+      </c>
+      <c r="U191" s="4" t="s">
+        <v>874</v>
+      </c>
+      <c r="V191" s="4" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="192" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>188</v>
       </c>
@@ -14383,8 +17337,23 @@
       <c r="Q192" s="7" t="s">
         <v>1041</v>
       </c>
-    </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R192" s="4" t="s">
+        <v>875</v>
+      </c>
+      <c r="S192" s="4" t="s">
+        <v>875</v>
+      </c>
+      <c r="T192" s="4" t="s">
+        <v>875</v>
+      </c>
+      <c r="U192" s="4" t="s">
+        <v>875</v>
+      </c>
+      <c r="V192" s="4" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="193" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>189</v>
       </c>
@@ -14436,8 +17405,23 @@
       <c r="Q193" s="7" t="s">
         <v>998</v>
       </c>
-    </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R193" s="4" t="s">
+        <v>876</v>
+      </c>
+      <c r="S193" s="4" t="s">
+        <v>876</v>
+      </c>
+      <c r="T193" s="4" t="s">
+        <v>876</v>
+      </c>
+      <c r="U193" s="4" t="s">
+        <v>876</v>
+      </c>
+      <c r="V193" s="4" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="194" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>190</v>
       </c>
@@ -14489,8 +17473,23 @@
       <c r="Q194" s="7" t="s">
         <v>1124</v>
       </c>
-    </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R194" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="S194" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="T194" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="U194" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="V194" s="4" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="195" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>191</v>
       </c>
@@ -14542,8 +17541,23 @@
       <c r="Q195" s="7" t="s">
         <v>1138</v>
       </c>
-    </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R195" s="4" t="s">
+        <v>878</v>
+      </c>
+      <c r="S195" s="4" t="s">
+        <v>878</v>
+      </c>
+      <c r="T195" s="4" t="s">
+        <v>878</v>
+      </c>
+      <c r="U195" s="4" t="s">
+        <v>878</v>
+      </c>
+      <c r="V195" s="4" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="196" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>192</v>
       </c>
@@ -14595,8 +17609,23 @@
       <c r="Q196" s="7" t="s">
         <v>955</v>
       </c>
-    </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R196" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="S196" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="T196" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="U196" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="V196" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="197" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>193</v>
       </c>
@@ -14648,8 +17677,23 @@
       <c r="Q197" s="7" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R197" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="S197" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="T197" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="U197" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="V197" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="198" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>194</v>
       </c>
@@ -14701,8 +17745,23 @@
       <c r="Q198" s="7" t="s">
         <v>1045</v>
       </c>
-    </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R198" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="S198" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="T198" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="U198" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="V198" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="199" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>195</v>
       </c>
@@ -14754,8 +17813,23 @@
       <c r="Q199" s="7" t="s">
         <v>1079</v>
       </c>
-    </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R199" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="S199" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="T199" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="U199" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="V199" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="200" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>196</v>
       </c>
@@ -14807,8 +17881,23 @@
       <c r="Q200" s="7" t="s">
         <v>912</v>
       </c>
-    </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R200" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="S200" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="T200" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="U200" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="V200" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="201" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>197</v>
       </c>
@@ -14860,8 +17949,23 @@
       <c r="Q201" s="7" t="s">
         <v>974</v>
       </c>
-    </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R201" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="S201" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="T201" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="U201" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="V201" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="202" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>198</v>
       </c>
@@ -14913,8 +18017,23 @@
       <c r="Q202" s="7" t="s">
         <v>1104</v>
       </c>
-    </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R202" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="S202" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="T202" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="U202" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="V202" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="203" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>199</v>
       </c>
@@ -14966,8 +18085,23 @@
       <c r="Q203" s="7" t="s">
         <v>1003</v>
       </c>
-    </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R203" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="S203" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="T203" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="U203" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="V203" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="204" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>200</v>
       </c>
@@ -15019,8 +18153,23 @@
       <c r="Q204" s="7" t="s">
         <v>1200</v>
       </c>
-    </row>
-    <row r="205" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R204" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="S204" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="T204" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="U204" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="V204" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="205" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>201</v>
       </c>
@@ -15072,8 +18221,23 @@
       <c r="Q205" s="7" t="s">
         <v>1198</v>
       </c>
-    </row>
-    <row r="206" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R205" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="S205" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="T205" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="U205" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="V205" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="206" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>202</v>
       </c>
@@ -15125,8 +18289,23 @@
       <c r="Q206" s="7" t="s">
         <v>1063</v>
       </c>
-    </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R206" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="S206" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="T206" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="U206" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="V206" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="207" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>203</v>
       </c>
@@ -15178,8 +18357,23 @@
       <c r="Q207" s="7" t="s">
         <v>1017</v>
       </c>
-    </row>
-    <row r="208" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R207" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="S207" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="T207" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="U207" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="V207" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="208" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>204</v>
       </c>
@@ -15231,8 +18425,23 @@
       <c r="Q208" s="7" t="s">
         <v>1179</v>
       </c>
-    </row>
-    <row r="209" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R208" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="S208" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="T208" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="U208" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="V208" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="209" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>205</v>
       </c>
@@ -15284,8 +18493,23 @@
       <c r="Q209" s="7" t="s">
         <v>1072</v>
       </c>
-    </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R209" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="S209" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="T209" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="U209" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="V209" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="210" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>206</v>
       </c>
@@ -15337,8 +18561,23 @@
       <c r="Q210" s="7" t="s">
         <v>1166</v>
       </c>
-    </row>
-    <row r="211" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R210" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="S210" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="T210" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="U210" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="V210" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="211" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>207</v>
       </c>
@@ -15390,8 +18629,23 @@
       <c r="Q211" s="7" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R211" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="S211" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="T211" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="U211" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="V211" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="212" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>208</v>
       </c>
@@ -15443,8 +18697,23 @@
       <c r="Q212" s="7" t="s">
         <v>1212</v>
       </c>
-    </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R212" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="S212" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="T212" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="U212" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="V212" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="213" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>209</v>
       </c>
@@ -15496,8 +18765,23 @@
       <c r="Q213" s="7" t="s">
         <v>1061</v>
       </c>
-    </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R213" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="S213" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="T213" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="U213" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="V213" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="214" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>210</v>
       </c>
@@ -15549,8 +18833,23 @@
       <c r="Q214" s="7" t="s">
         <v>1145</v>
       </c>
-    </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R214" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="S214" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="T214" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="U214" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="V214" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="215" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>211</v>
       </c>
@@ -15602,8 +18901,23 @@
       <c r="Q215" s="7" t="s">
         <v>924</v>
       </c>
-    </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R215" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="S215" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="T215" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="U215" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="V215" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="216" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>212</v>
       </c>
@@ -15655,8 +18969,23 @@
       <c r="Q216" s="7" t="s">
         <v>960</v>
       </c>
-    </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R216" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="S216" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="T216" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="U216" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="V216" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="217" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>213</v>
       </c>
@@ -15708,8 +19037,23 @@
       <c r="Q217" s="7" t="s">
         <v>928</v>
       </c>
-    </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R217" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="S217" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="T217" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="U217" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="V217" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="218" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>214</v>
       </c>
@@ -15761,8 +19105,23 @@
       <c r="Q218" s="7" t="s">
         <v>966</v>
       </c>
-    </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R218" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="S218" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="T218" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="U218" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="V218" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="219" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>215</v>
       </c>
@@ -15814,8 +19173,23 @@
       <c r="Q219" s="7" t="s">
         <v>1132</v>
       </c>
-    </row>
-    <row r="220" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R219" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="S219" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="T219" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="U219" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="V219" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="220" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>216</v>
       </c>
@@ -15867,8 +19241,23 @@
       <c r="Q220" s="7" t="s">
         <v>1167</v>
       </c>
-    </row>
-    <row r="221" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R220" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="S220" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="T220" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="U220" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="V220" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="221" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>217</v>
       </c>
@@ -15920,8 +19309,23 @@
       <c r="Q221" s="7" t="s">
         <v>971</v>
       </c>
-    </row>
-    <row r="222" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R221" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="S221" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="T221" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="U221" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="V221" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="222" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>218</v>
       </c>
@@ -15973,8 +19377,23 @@
       <c r="Q222" s="7" t="s">
         <v>918</v>
       </c>
-    </row>
-    <row r="223" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R222" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="S222" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="T222" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="U222" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="V222" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="223" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>219</v>
       </c>
@@ -16026,8 +19445,23 @@
       <c r="Q223" s="7" t="s">
         <v>1236</v>
       </c>
-    </row>
-    <row r="224" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R223" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="S223" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="T223" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="U223" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="V223" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="224" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>220</v>
       </c>
@@ -16079,8 +19513,23 @@
       <c r="Q224" s="7" t="s">
         <v>1183</v>
       </c>
-    </row>
-    <row r="225" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R224" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="S224" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="T224" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="U224" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="V224" s="1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="225" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>221</v>
       </c>
@@ -16132,8 +19581,23 @@
       <c r="Q225" s="7" t="s">
         <v>910</v>
       </c>
-    </row>
-    <row r="226" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R225" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="S225" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="T225" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="U225" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="V225" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="226" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>222</v>
       </c>
@@ -16185,8 +19649,23 @@
       <c r="Q226" s="7" t="s">
         <v>1031</v>
       </c>
-    </row>
-    <row r="227" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R226" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="S226" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="T226" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="U226" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="V226" s="1" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="227" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>223</v>
       </c>
@@ -16238,8 +19717,23 @@
       <c r="Q227" s="7" t="s">
         <v>1077</v>
       </c>
-    </row>
-    <row r="228" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R227" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="S227" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="T227" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="U227" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="V227" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="228" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>224</v>
       </c>
@@ -16291,8 +19785,23 @@
       <c r="Q228" s="7" t="s">
         <v>1191</v>
       </c>
-    </row>
-    <row r="229" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R228" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="S228" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="T228" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="U228" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="V228" s="1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="229" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>225</v>
       </c>
@@ -16344,8 +19853,23 @@
       <c r="Q229" s="7" t="s">
         <v>1091</v>
       </c>
-    </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R229" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="S229" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="T229" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="U229" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="V229" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="230" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>226</v>
       </c>
@@ -16397,8 +19921,23 @@
       <c r="Q230" s="7" t="s">
         <v>958</v>
       </c>
-    </row>
-    <row r="231" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R230" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="S230" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="T230" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="U230" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="V230" s="1" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="231" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>227</v>
       </c>
@@ -16450,8 +19989,23 @@
       <c r="Q231" s="7" t="s">
         <v>970</v>
       </c>
-    </row>
-    <row r="232" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R231" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="S231" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="T231" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="U231" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="V231" s="1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="232" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>228</v>
       </c>
@@ -16503,8 +20057,23 @@
       <c r="Q232" s="7" t="s">
         <v>915</v>
       </c>
-    </row>
-    <row r="233" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R232" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="S232" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="T232" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="U232" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="V232" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="233" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>229</v>
       </c>
@@ -16556,8 +20125,23 @@
       <c r="Q233" s="7" t="s">
         <v>1153</v>
       </c>
-    </row>
-    <row r="234" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R233" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="S233" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="T233" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="U233" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="V233" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="234" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>230</v>
       </c>
@@ -16609,8 +20193,23 @@
       <c r="Q234" s="7" t="s">
         <v>942</v>
       </c>
-    </row>
-    <row r="235" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R234" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="S234" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="T234" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="U234" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="V234" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="235" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>231</v>
       </c>
@@ -16662,8 +20261,23 @@
       <c r="Q235" s="7" t="s">
         <v>1130</v>
       </c>
-    </row>
-    <row r="236" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R235" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="S235" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="T235" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="U235" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="V235" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="236" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>232</v>
       </c>
@@ -16715,8 +20329,23 @@
       <c r="Q236" s="7" t="s">
         <v>1099</v>
       </c>
-    </row>
-    <row r="237" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R236" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="S236" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="T236" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="U236" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="V236" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="237" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>233</v>
       </c>
@@ -16768,8 +20397,23 @@
       <c r="Q237" s="7" t="s">
         <v>969</v>
       </c>
-    </row>
-    <row r="238" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R237" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="S237" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="T237" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="U237" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="V237" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="238" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>234</v>
       </c>
@@ -16821,8 +20465,23 @@
       <c r="Q238" s="7" t="s">
         <v>1143</v>
       </c>
-    </row>
-    <row r="239" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R238" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="S238" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="T238" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="U238" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="V238" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="239" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>235</v>
       </c>
@@ -16874,8 +20533,23 @@
       <c r="Q239" s="7" t="s">
         <v>1165</v>
       </c>
-    </row>
-    <row r="240" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R239" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="S239" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="T239" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="U239" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="V239" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="240" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>236</v>
       </c>
@@ -16927,8 +20601,23 @@
       <c r="Q240" s="7" t="s">
         <v>1106</v>
       </c>
-    </row>
-    <row r="241" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R240" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="S240" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="T240" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="U240" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="V240" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="241" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>237</v>
       </c>
@@ -16980,8 +20669,23 @@
       <c r="Q241" s="7" t="s">
         <v>1239</v>
       </c>
-    </row>
-    <row r="242" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R241" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="S241" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="T241" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="U241" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="V241" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="242" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>238</v>
       </c>
@@ -17033,8 +20737,23 @@
       <c r="Q242" s="7" t="s">
         <v>1078</v>
       </c>
-    </row>
-    <row r="243" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R242" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="S242" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="T242" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="U242" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="V242" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="243" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>239</v>
       </c>
@@ -17086,8 +20805,23 @@
       <c r="Q243" s="7" t="s">
         <v>979</v>
       </c>
-    </row>
-    <row r="244" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R243" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="S243" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="T243" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="U243" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="V243" s="1" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="244" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>240</v>
       </c>
@@ -17139,8 +20873,23 @@
       <c r="Q244" s="7" t="s">
         <v>1177</v>
       </c>
-    </row>
-    <row r="245" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R244" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="S244" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="T244" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="U244" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="V244" s="1" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="245" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>241</v>
       </c>
@@ -17192,8 +20941,23 @@
       <c r="Q245" s="7" t="s">
         <v>1022</v>
       </c>
-    </row>
-    <row r="246" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R245" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="S245" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="T245" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="U245" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="V245" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="246" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>242</v>
       </c>
@@ -17245,8 +21009,23 @@
       <c r="Q246" s="7" t="s">
         <v>989</v>
       </c>
-    </row>
-    <row r="247" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R246" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="S246" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="T246" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="U246" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="V246" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="247" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>243</v>
       </c>
@@ -17298,8 +21077,23 @@
       <c r="Q247" s="7" t="s">
         <v>1000</v>
       </c>
-    </row>
-    <row r="248" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R247" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="S247" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="T247" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="U247" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="V247" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="248" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>244</v>
       </c>
@@ -17351,8 +21145,23 @@
       <c r="Q248" s="7" t="s">
         <v>1013</v>
       </c>
-    </row>
-    <row r="249" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R248" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="S248" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="T248" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="U248" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="V248" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="249" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>245</v>
       </c>
@@ -17404,8 +21213,23 @@
       <c r="Q249" s="7" t="s">
         <v>936</v>
       </c>
-    </row>
-    <row r="250" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R249" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="S249" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="T249" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="U249" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="V249" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="250" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>246</v>
       </c>
@@ -17457,8 +21281,23 @@
       <c r="Q250" s="7" t="s">
         <v>1241</v>
       </c>
-    </row>
-    <row r="251" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R250" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="S250" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="T250" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="U250" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="V250" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="251" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>247</v>
       </c>
@@ -17510,8 +21349,23 @@
       <c r="Q251" s="7" t="s">
         <v>1112</v>
       </c>
-    </row>
-    <row r="252" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R251" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="S251" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="T251" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="U251" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="V251" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="252" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>248</v>
       </c>
@@ -17563,8 +21417,23 @@
       <c r="Q252" s="7" t="s">
         <v>939</v>
       </c>
-    </row>
-    <row r="253" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R252" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="S252" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="T252" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="U252" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="V252" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="253" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
         <v>879</v>
       </c>
@@ -17616,8 +21485,23 @@
       <c r="Q253" s="7" t="s">
         <v>905</v>
       </c>
-    </row>
-    <row r="254" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R253" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="S253" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="T253" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="U253" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="V253" s="1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="254" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>249</v>
       </c>
@@ -17669,8 +21553,23 @@
       <c r="Q254" s="7" t="s">
         <v>913</v>
       </c>
-    </row>
-    <row r="255" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R254" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="S254" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="T254" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="U254" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="V254" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="255" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>250</v>
       </c>
@@ -17722,8 +21621,23 @@
       <c r="Q255" s="7" t="s">
         <v>1189</v>
       </c>
-    </row>
-    <row r="256" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R255" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="S255" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="T255" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="U255" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="V255" s="1" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="256" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>251</v>
       </c>
@@ -17775,8 +21689,23 @@
       <c r="Q256" s="7" t="s">
         <v>1037</v>
       </c>
-    </row>
-    <row r="257" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R256" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="S256" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="T256" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="U256" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="V256" s="1" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="257" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>252</v>
       </c>
@@ -17828,8 +21757,23 @@
       <c r="Q257" s="7" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="258" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R257" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="S257" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="T257" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="U257" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="V257" s="1" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="258" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>253</v>
       </c>
@@ -17881,8 +21825,23 @@
       <c r="Q258" s="7" t="s">
         <v>992</v>
       </c>
-    </row>
-    <row r="259" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R258" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="S258" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="T258" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="U258" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="V258" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="259" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>254</v>
       </c>
@@ -17934,8 +21893,23 @@
       <c r="Q259" s="7" t="s">
         <v>1232</v>
       </c>
-    </row>
-    <row r="260" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R259" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="S259" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="T259" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="U259" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="V259" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="260" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>255</v>
       </c>
@@ -17987,8 +21961,23 @@
       <c r="Q260" s="7" t="s">
         <v>903</v>
       </c>
-    </row>
-    <row r="261" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R260" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="S260" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="T260" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="U260" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="V260" s="1" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="261" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>256</v>
       </c>
@@ -18040,8 +22029,23 @@
       <c r="Q261" s="7" t="s">
         <v>991</v>
       </c>
-    </row>
-    <row r="262" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R261" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="S261" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="T261" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="U261" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="V261" s="1" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="262" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>257</v>
       </c>
@@ -18093,8 +22097,23 @@
       <c r="Q262" s="7" t="s">
         <v>1083</v>
       </c>
-    </row>
-    <row r="263" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R262" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="S262" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="T262" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="U262" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="V262" s="1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="263" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>258</v>
       </c>
@@ -18146,8 +22165,23 @@
       <c r="Q263" s="7" t="s">
         <v>1021</v>
       </c>
-    </row>
-    <row r="264" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R263" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="S263" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="T263" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="U263" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="V263" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="264" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>259</v>
       </c>
@@ -18199,8 +22233,23 @@
       <c r="Q264" s="7" t="s">
         <v>1205</v>
       </c>
-    </row>
-    <row r="265" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R264" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="S264" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="T264" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="U264" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="V264" s="1" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="265" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>260</v>
       </c>
@@ -18252,8 +22301,23 @@
       <c r="Q265" s="7" t="s">
         <v>1094</v>
       </c>
-    </row>
-    <row r="266" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R265" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="S265" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="T265" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="U265" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="V265" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="266" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>261</v>
       </c>
@@ -18305,8 +22369,23 @@
       <c r="Q266" s="7" t="s">
         <v>1186</v>
       </c>
-    </row>
-    <row r="267" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R266" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="S266" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="T266" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="U266" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="V266" s="1" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="267" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>262</v>
       </c>
@@ -18358,8 +22437,23 @@
       <c r="Q267" s="7" t="s">
         <v>1158</v>
       </c>
-    </row>
-    <row r="268" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R267" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="S267" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="T267" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="U267" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="V267" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="268" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>263</v>
       </c>
@@ -18411,8 +22505,23 @@
       <c r="Q268" s="7" t="s">
         <v>1059</v>
       </c>
-    </row>
-    <row r="269" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R268" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="S268" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="T268" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="U268" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="V268" s="1" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="269" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>264</v>
       </c>
@@ -18464,8 +22573,23 @@
       <c r="Q269" s="7" t="s">
         <v>1173</v>
       </c>
-    </row>
-    <row r="270" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R269" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="S269" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="T269" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="U269" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="V269" s="3" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="270" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>265</v>
       </c>
@@ -18517,8 +22641,23 @@
       <c r="Q270" s="7" t="s">
         <v>932</v>
       </c>
-    </row>
-    <row r="271" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R270" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="S270" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="T270" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="U270" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="V270" s="1" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="271" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>266</v>
       </c>
@@ -18570,8 +22709,23 @@
       <c r="Q271" s="7" t="s">
         <v>1056</v>
       </c>
-    </row>
-    <row r="272" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R271" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="S271" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="T271" s="9" t="s">
+        <v>1283</v>
+      </c>
+      <c r="U271" s="9" t="s">
+        <v>1283</v>
+      </c>
+      <c r="V271" s="9" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="272" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>267</v>
       </c>
@@ -18623,8 +22777,23 @@
       <c r="Q272" s="7" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="273" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R272" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="S272" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="T272" s="9" t="s">
+        <v>1282</v>
+      </c>
+      <c r="U272" s="9" t="s">
+        <v>1282</v>
+      </c>
+      <c r="V272" s="9" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="273" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>268</v>
       </c>
@@ -18676,8 +22845,23 @@
       <c r="Q273" s="7" t="s">
         <v>1101</v>
       </c>
-    </row>
-    <row r="274" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R273" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="S273" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="T273" s="9" t="s">
+        <v>1281</v>
+      </c>
+      <c r="U273" s="9" t="s">
+        <v>1281</v>
+      </c>
+      <c r="V273" s="9" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="274" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>269</v>
       </c>
@@ -18729,8 +22913,23 @@
       <c r="Q274" s="7" t="s">
         <v>1111</v>
       </c>
-    </row>
-    <row r="275" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R274" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="S274" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="T274" s="9" t="s">
+        <v>1280</v>
+      </c>
+      <c r="U274" s="9" t="s">
+        <v>1280</v>
+      </c>
+      <c r="V274" s="9" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="275" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>270</v>
       </c>
@@ -18782,8 +22981,23 @@
       <c r="Q275" s="7" t="s">
         <v>948</v>
       </c>
-    </row>
-    <row r="276" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R275" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="S275" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="T275" s="9" t="s">
+        <v>1279</v>
+      </c>
+      <c r="U275" s="9" t="s">
+        <v>1279</v>
+      </c>
+      <c r="V275" s="9" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="276" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>271</v>
       </c>
@@ -18835,8 +23049,23 @@
       <c r="Q276" s="7" t="s">
         <v>1069</v>
       </c>
-    </row>
-    <row r="277" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R276" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="S276" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="T276" s="9" t="s">
+        <v>1278</v>
+      </c>
+      <c r="U276" s="9" t="s">
+        <v>1278</v>
+      </c>
+      <c r="V276" s="9" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="277" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>272</v>
       </c>
@@ -18888,8 +23117,23 @@
       <c r="Q277" s="7" t="s">
         <v>954</v>
       </c>
-    </row>
-    <row r="278" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R277" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="S277" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="T277" s="9" t="s">
+        <v>1277</v>
+      </c>
+      <c r="U277" s="9" t="s">
+        <v>1277</v>
+      </c>
+      <c r="V277" s="9" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="278" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>273</v>
       </c>
@@ -18941,8 +23185,23 @@
       <c r="Q278" s="7" t="s">
         <v>1092</v>
       </c>
-    </row>
-    <row r="279" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R278" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="S278" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="T278" s="9" t="s">
+        <v>1276</v>
+      </c>
+      <c r="U278" s="9" t="s">
+        <v>1276</v>
+      </c>
+      <c r="V278" s="9" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="279" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>274</v>
       </c>
@@ -18994,8 +23253,23 @@
       <c r="Q279" s="7" t="s">
         <v>1137</v>
       </c>
-    </row>
-    <row r="280" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R279" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="S279" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="T279" s="9" t="s">
+        <v>1275</v>
+      </c>
+      <c r="U279" s="9" t="s">
+        <v>1275</v>
+      </c>
+      <c r="V279" s="9" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="280" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>275</v>
       </c>
@@ -19047,8 +23321,23 @@
       <c r="Q280" s="7" t="s">
         <v>1089</v>
       </c>
-    </row>
-    <row r="281" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R280" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="S280" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="T280" s="9" t="s">
+        <v>1264</v>
+      </c>
+      <c r="U280" s="9" t="s">
+        <v>1264</v>
+      </c>
+      <c r="V280" s="9" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="281" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>276</v>
       </c>
@@ -19100,8 +23389,23 @@
       <c r="Q281" s="7" t="s">
         <v>1174</v>
       </c>
-    </row>
-    <row r="282" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R281" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="S281" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="T281" s="9" t="s">
+        <v>1265</v>
+      </c>
+      <c r="U281" s="9" t="s">
+        <v>1265</v>
+      </c>
+      <c r="V281" s="9" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="282" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>277</v>
       </c>
@@ -19153,8 +23457,23 @@
       <c r="Q282" s="7" t="s">
         <v>1206</v>
       </c>
-    </row>
-    <row r="283" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R282" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="S282" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="T282" s="9" t="s">
+        <v>1266</v>
+      </c>
+      <c r="U282" s="9" t="s">
+        <v>1266</v>
+      </c>
+      <c r="V282" s="9" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="283" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>278</v>
       </c>
@@ -19206,8 +23525,23 @@
       <c r="Q283" s="7" t="s">
         <v>1150</v>
       </c>
-    </row>
-    <row r="284" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R283" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="S283" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="T283" s="9" t="s">
+        <v>1267</v>
+      </c>
+      <c r="U283" s="9" t="s">
+        <v>1267</v>
+      </c>
+      <c r="V283" s="9" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="284" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>279</v>
       </c>
@@ -19259,8 +23593,23 @@
       <c r="Q284" s="7" t="s">
         <v>1188</v>
       </c>
-    </row>
-    <row r="285" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R284" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="S284" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="T284" s="9" t="s">
+        <v>1268</v>
+      </c>
+      <c r="U284" s="9" t="s">
+        <v>1268</v>
+      </c>
+      <c r="V284" s="9" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="285" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>280</v>
       </c>
@@ -19312,8 +23661,23 @@
       <c r="Q285" s="7" t="s">
         <v>907</v>
       </c>
-    </row>
-    <row r="286" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R285" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="S285" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="T285" s="9" t="s">
+        <v>1269</v>
+      </c>
+      <c r="U285" s="9" t="s">
+        <v>1269</v>
+      </c>
+      <c r="V285" s="9" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="286" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>281</v>
       </c>
@@ -19365,8 +23729,23 @@
       <c r="Q286" s="7" t="s">
         <v>1011</v>
       </c>
-    </row>
-    <row r="287" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R286" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="S286" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="T286" s="9" t="s">
+        <v>1270</v>
+      </c>
+      <c r="U286" s="9" t="s">
+        <v>1270</v>
+      </c>
+      <c r="V286" s="9" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="287" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>282</v>
       </c>
@@ -19418,8 +23797,23 @@
       <c r="Q287" s="7" t="s">
         <v>1144</v>
       </c>
-    </row>
-    <row r="288" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R287" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="S287" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="T287" s="9" t="s">
+        <v>1271</v>
+      </c>
+      <c r="U287" s="9" t="s">
+        <v>1271</v>
+      </c>
+      <c r="V287" s="9" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="288" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>283</v>
       </c>
@@ -19471,8 +23865,23 @@
       <c r="Q288" s="7" t="s">
         <v>904</v>
       </c>
-    </row>
-    <row r="289" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R288" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="S288" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="T288" s="9" t="s">
+        <v>1272</v>
+      </c>
+      <c r="U288" s="9" t="s">
+        <v>1272</v>
+      </c>
+      <c r="V288" s="9" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="289" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>284</v>
       </c>
@@ -19524,8 +23933,23 @@
       <c r="Q289" s="7" t="s">
         <v>1245</v>
       </c>
-    </row>
-    <row r="290" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R289" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="S289" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="T289" s="9" t="s">
+        <v>1273</v>
+      </c>
+      <c r="U289" s="9" t="s">
+        <v>1273</v>
+      </c>
+      <c r="V289" s="9" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="290" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>285</v>
       </c>
@@ -19577,8 +24001,23 @@
       <c r="Q290" s="7" t="s">
         <v>1029</v>
       </c>
-    </row>
-    <row r="291" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R290" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="S290" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="T290" s="9" t="s">
+        <v>1274</v>
+      </c>
+      <c r="U290" s="9" t="s">
+        <v>1274</v>
+      </c>
+      <c r="V290" s="9" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="291" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>286</v>
       </c>
@@ -19630,8 +24069,23 @@
       <c r="Q291" s="7" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="292" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R291" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="S291" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="T291" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="U291" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="V291" s="1" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="292" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>287</v>
       </c>
@@ -19683,8 +24137,23 @@
       <c r="Q292" s="7" t="s">
         <v>1129</v>
       </c>
-    </row>
-    <row r="293" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R292" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="S292" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="T292" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="U292" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="V292" s="1" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="293" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>288</v>
       </c>
@@ -19736,8 +24205,23 @@
       <c r="Q293" s="7" t="s">
         <v>1231</v>
       </c>
-    </row>
-    <row r="294" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R293" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="S293" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="T293" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="U293" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="V293" s="1" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="294" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>289</v>
       </c>
@@ -19789,8 +24273,23 @@
       <c r="Q294" s="7" t="s">
         <v>1036</v>
       </c>
-    </row>
-    <row r="295" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R294" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="S294" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="T294" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="U294" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="V294" s="1" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="295" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>290</v>
       </c>
@@ -19842,8 +24341,23 @@
       <c r="Q295" s="7" t="s">
         <v>1108</v>
       </c>
-    </row>
-    <row r="296" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R295" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="S295" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="T295" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="U295" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="V295" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="296" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>291</v>
       </c>
@@ -19895,8 +24409,23 @@
       <c r="Q296" s="7" t="s">
         <v>1032</v>
       </c>
-    </row>
-    <row r="297" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R296" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="S296" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="T296" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="U296" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="V296" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="297" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>292</v>
       </c>
@@ -19948,8 +24477,23 @@
       <c r="Q297" s="7" t="s">
         <v>1080</v>
       </c>
-    </row>
-    <row r="298" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R297" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="S297" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="T297" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="U297" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="V297" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="298" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>293</v>
       </c>
@@ -20001,8 +24545,23 @@
       <c r="Q298" s="7" t="s">
         <v>1223</v>
       </c>
-    </row>
-    <row r="299" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R298" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="S298" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="T298" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="U298" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="V298" s="1" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="299" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>294</v>
       </c>
@@ -20054,8 +24613,23 @@
       <c r="Q299" s="7" t="s">
         <v>1086</v>
       </c>
-    </row>
-    <row r="300" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R299" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="S299" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="T299" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="U299" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="V299" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="300" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>295</v>
       </c>
@@ -20107,8 +24681,23 @@
       <c r="Q300" s="7" t="s">
         <v>1067</v>
       </c>
-    </row>
-    <row r="301" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R300" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="S300" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="T300" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="U300" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="V300" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="301" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>296</v>
       </c>
@@ -20160,8 +24749,23 @@
       <c r="Q301" s="7" t="s">
         <v>1133</v>
       </c>
-    </row>
-    <row r="302" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R301" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="S301" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="T301" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="U301" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="V301" s="1" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="302" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>297</v>
       </c>
@@ -20213,8 +24817,23 @@
       <c r="Q302" s="7" t="s">
         <v>973</v>
       </c>
-    </row>
-    <row r="303" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R302" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="S302" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="T302" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="U302" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="V302" s="1" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="303" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>298</v>
       </c>
@@ -20266,8 +24885,23 @@
       <c r="Q303" s="7" t="s">
         <v>1008</v>
       </c>
-    </row>
-    <row r="304" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R303" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="S303" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="T303" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="U303" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="V303" s="1" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="304" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>299</v>
       </c>
@@ -20319,8 +24953,23 @@
       <c r="Q304" s="7" t="s">
         <v>972</v>
       </c>
-    </row>
-    <row r="305" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R304" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="S304" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="T304" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="U304" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="V304" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="305" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>300</v>
       </c>
@@ -20372,8 +25021,23 @@
       <c r="Q305" s="7" t="s">
         <v>985</v>
       </c>
-    </row>
-    <row r="306" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R305" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="S305" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="T305" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="U305" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="V305" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="306" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>301</v>
       </c>
@@ -20425,8 +25089,23 @@
       <c r="Q306" s="7" t="s">
         <v>1051</v>
       </c>
-    </row>
-    <row r="307" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R306" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="S306" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="T306" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="U306" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="V306" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="307" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>302</v>
       </c>
@@ -20478,8 +25157,23 @@
       <c r="Q307" s="7" t="s">
         <v>976</v>
       </c>
-    </row>
-    <row r="308" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R307" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="S307" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="T307" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="U307" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="V307" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="308" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>303</v>
       </c>
@@ -20531,8 +25225,23 @@
       <c r="Q308" s="7" t="s">
         <v>1122</v>
       </c>
-    </row>
-    <row r="309" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R308" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="S308" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="T308" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="U308" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="V308" s="1" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="309" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>304</v>
       </c>
@@ -20584,8 +25293,23 @@
       <c r="Q309" s="7" t="s">
         <v>959</v>
       </c>
-    </row>
-    <row r="310" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R309" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="S309" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="T309" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="U309" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="V309" s="1" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="310" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>305</v>
       </c>
@@ -20637,8 +25361,23 @@
       <c r="Q310" s="7" t="s">
         <v>1001</v>
       </c>
-    </row>
-    <row r="311" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R310" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="S310" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="T310" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="U310" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="V310" s="1" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="311" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>893</v>
       </c>
@@ -20690,8 +25429,23 @@
       <c r="Q311" s="7" t="s">
         <v>1084</v>
       </c>
-    </row>
-    <row r="312" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R311" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="S311" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="T311" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="U311" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="V311" s="1" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="312" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>306</v>
       </c>
@@ -20743,8 +25497,23 @@
       <c r="Q312" s="7" t="s">
         <v>1110</v>
       </c>
-    </row>
-    <row r="313" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R312" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="S312" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="T312" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="U312" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="V312" s="1" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="313" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>307</v>
       </c>
@@ -20796,8 +25565,23 @@
       <c r="Q313" s="7" t="s">
         <v>975</v>
       </c>
-    </row>
-    <row r="314" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R313" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="S313" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="T313" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="U313" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="V313" s="1" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="314" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>308</v>
       </c>
@@ -20849,8 +25633,23 @@
       <c r="Q314" s="7" t="s">
         <v>1203</v>
       </c>
-    </row>
-    <row r="315" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R314" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="S314" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="T314" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="U314" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="V314" s="1" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="315" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>309</v>
       </c>
@@ -20902,8 +25701,23 @@
       <c r="Q315" s="7" t="s">
         <v>1127</v>
       </c>
-    </row>
-    <row r="316" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R315" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="S315" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="T315" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="U315" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="V315" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="316" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>310</v>
       </c>
@@ -20955,8 +25769,23 @@
       <c r="Q316" s="7" t="s">
         <v>1240</v>
       </c>
-    </row>
-    <row r="317" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R316" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="S316" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="T316" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="U316" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="V316" s="1" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="317" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>311</v>
       </c>
@@ -21008,8 +25837,23 @@
       <c r="Q317" s="7" t="s">
         <v>1202</v>
       </c>
-    </row>
-    <row r="318" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R317" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="S317" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="T317" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="U317" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="V317" s="1" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="318" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>312</v>
       </c>
@@ -21061,8 +25905,23 @@
       <c r="Q318" s="7" t="s">
         <v>1195</v>
       </c>
-    </row>
-    <row r="319" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R318" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="S318" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="T318" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="U318" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="V318" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="319" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>313</v>
       </c>
@@ -21114,8 +25973,23 @@
       <c r="Q319" s="7" t="s">
         <v>986</v>
       </c>
-    </row>
-    <row r="320" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R319" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="S319" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="T319" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="U319" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="V319" s="1" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="320" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>314</v>
       </c>
@@ -21167,8 +26041,23 @@
       <c r="Q320" s="7" t="s">
         <v>981</v>
       </c>
-    </row>
-    <row r="321" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R320" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="S320" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="T320" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="U320" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="V320" s="1" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="321" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>315</v>
       </c>
@@ -21220,8 +26109,23 @@
       <c r="Q321" s="7" t="s">
         <v>1009</v>
       </c>
-    </row>
-    <row r="322" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R321" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="S321" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="T321" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="U321" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="V321" s="1" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="322" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>316</v>
       </c>
@@ -21273,8 +26177,23 @@
       <c r="Q322" s="7" t="s">
         <v>1117</v>
       </c>
-    </row>
-    <row r="323" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R322" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="S322" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="T322" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="U322" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="V322" s="1" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="323" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>317</v>
       </c>
@@ -21326,8 +26245,23 @@
       <c r="Q323" s="7" t="s">
         <v>922</v>
       </c>
-    </row>
-    <row r="324" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R323" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="S323" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="T323" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="U323" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="V323" s="1" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="324" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>318</v>
       </c>
@@ -21379,8 +26313,23 @@
       <c r="Q324" s="7" t="s">
         <v>1057</v>
       </c>
-    </row>
-    <row r="325" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R324" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="S324" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="T324" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="U324" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="V324" s="1" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="325" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>319</v>
       </c>
@@ -21432,8 +26381,23 @@
       <c r="Q325" s="7" t="s">
         <v>1213</v>
       </c>
-    </row>
-    <row r="326" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R325" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="S325" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="T325" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="U325" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="V325" s="1" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="326" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>320</v>
       </c>
@@ -21485,8 +26449,23 @@
       <c r="Q326" s="7" t="s">
         <v>940</v>
       </c>
-    </row>
-    <row r="327" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R326" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="S326" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="T326" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="U326" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="V326" s="1" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="327" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>321</v>
       </c>
@@ -21538,8 +26517,23 @@
       <c r="Q327" s="7" t="s">
         <v>943</v>
       </c>
-    </row>
-    <row r="328" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R327" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="S327" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="T327" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="U327" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="V327" s="1" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="328" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>322</v>
       </c>
@@ -21591,8 +26585,23 @@
       <c r="Q328" s="7" t="s">
         <v>984</v>
       </c>
-    </row>
-    <row r="329" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R328" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="S328" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="T328" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="U328" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="V328" s="1" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="329" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>894</v>
       </c>
@@ -21644,8 +26653,23 @@
       <c r="Q329" s="7" t="s">
         <v>1113</v>
       </c>
-    </row>
-    <row r="330" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R329" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="S329" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="T329" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="U329" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="V329" s="3" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="330" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>323</v>
       </c>
@@ -21697,8 +26721,23 @@
       <c r="Q330" s="7" t="s">
         <v>1103</v>
       </c>
-    </row>
-    <row r="331" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R330" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="S330" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="T330" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="U330" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="V330" s="1" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="331" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>324</v>
       </c>
@@ -21750,8 +26789,23 @@
       <c r="Q331" s="7" t="s">
         <v>937</v>
       </c>
-    </row>
-    <row r="332" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R331" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="S331" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="T331" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="U331" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="V331" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="332" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>325</v>
       </c>
@@ -21803,8 +26857,23 @@
       <c r="Q332" s="7" t="s">
         <v>1047</v>
       </c>
-    </row>
-    <row r="333" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R332" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="S332" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="T332" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="U332" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="V332" s="1" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="333" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>326</v>
       </c>
@@ -21856,8 +26925,23 @@
       <c r="Q333" s="7" t="s">
         <v>987</v>
       </c>
-    </row>
-    <row r="334" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R333" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="S333" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="T333" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="U333" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="V333" s="4" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="334" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>327</v>
       </c>
@@ -21909,8 +26993,23 @@
       <c r="Q334" s="7" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="335" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R334" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="S334" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="T334" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="U334" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="V334" s="4" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="335" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>328</v>
       </c>
@@ -21962,8 +27061,23 @@
       <c r="Q335" s="7" t="s">
         <v>930</v>
       </c>
-    </row>
-    <row r="336" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R335" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="S335" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="T335" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="U335" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="V335" s="4" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="336" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>329</v>
       </c>
@@ -22015,8 +27129,23 @@
       <c r="Q336" s="7" t="s">
         <v>1142</v>
       </c>
-    </row>
-    <row r="337" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R336" s="4" t="s">
+        <v>884</v>
+      </c>
+      <c r="S336" s="4" t="s">
+        <v>884</v>
+      </c>
+      <c r="T336" s="4" t="s">
+        <v>884</v>
+      </c>
+      <c r="U336" s="4" t="s">
+        <v>884</v>
+      </c>
+      <c r="V336" s="4" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="337" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>330</v>
       </c>
@@ -22068,8 +27197,23 @@
       <c r="Q337" s="7" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="338" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R337" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="S337" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="T337" s="9" t="s">
+        <v>1263</v>
+      </c>
+      <c r="U337" s="9" t="s">
+        <v>1263</v>
+      </c>
+      <c r="V337" s="9" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="338" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>331</v>
       </c>
@@ -22121,8 +27265,23 @@
       <c r="Q338" s="7" t="s">
         <v>1019</v>
       </c>
-    </row>
-    <row r="339" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R338" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="S338" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="T338" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="U338" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="V338" s="4" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="339" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>332</v>
       </c>
@@ -22174,8 +27333,23 @@
       <c r="Q339" s="7" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="340" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R339" s="4" t="s">
+        <v>886</v>
+      </c>
+      <c r="S339" s="4" t="s">
+        <v>886</v>
+      </c>
+      <c r="T339" s="4" t="s">
+        <v>886</v>
+      </c>
+      <c r="U339" s="4" t="s">
+        <v>886</v>
+      </c>
+      <c r="V339" s="4" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="340" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>333</v>
       </c>
@@ -22227,8 +27401,23 @@
       <c r="Q340" s="7" t="s">
         <v>1062</v>
       </c>
-    </row>
-    <row r="341" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R340" s="4" t="s">
+        <v>887</v>
+      </c>
+      <c r="S340" s="4" t="s">
+        <v>887</v>
+      </c>
+      <c r="T340" s="4" t="s">
+        <v>887</v>
+      </c>
+      <c r="U340" s="4" t="s">
+        <v>887</v>
+      </c>
+      <c r="V340" s="4" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="341" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>334</v>
       </c>
@@ -22280,8 +27469,23 @@
       <c r="Q341" s="7" t="s">
         <v>1016</v>
       </c>
-    </row>
-    <row r="342" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R341" s="4" t="s">
+        <v>888</v>
+      </c>
+      <c r="S341" s="4" t="s">
+        <v>888</v>
+      </c>
+      <c r="T341" s="4" t="s">
+        <v>888</v>
+      </c>
+      <c r="U341" s="4" t="s">
+        <v>888</v>
+      </c>
+      <c r="V341" s="4" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="342" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>335</v>
       </c>
@@ -22333,8 +27537,23 @@
       <c r="Q342" s="7" t="s">
         <v>914</v>
       </c>
-    </row>
-    <row r="343" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R342" s="4" t="s">
+        <v>889</v>
+      </c>
+      <c r="S342" s="4" t="s">
+        <v>889</v>
+      </c>
+      <c r="T342" s="4" t="s">
+        <v>889</v>
+      </c>
+      <c r="U342" s="4" t="s">
+        <v>889</v>
+      </c>
+      <c r="V342" s="4" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="343" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>336</v>
       </c>
@@ -22386,8 +27605,23 @@
       <c r="Q343" s="7" t="s">
         <v>1115</v>
       </c>
-    </row>
-    <row r="344" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R343" s="4" t="s">
+        <v>890</v>
+      </c>
+      <c r="S343" s="4" t="s">
+        <v>890</v>
+      </c>
+      <c r="T343" s="4" t="s">
+        <v>890</v>
+      </c>
+      <c r="U343" s="4" t="s">
+        <v>890</v>
+      </c>
+      <c r="V343" s="4" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="344" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>337</v>
       </c>
@@ -22439,8 +27673,23 @@
       <c r="Q344" s="7" t="s">
         <v>1194</v>
       </c>
-    </row>
-    <row r="345" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R344" s="4" t="s">
+        <v>891</v>
+      </c>
+      <c r="S344" s="4" t="s">
+        <v>891</v>
+      </c>
+      <c r="T344" s="4" t="s">
+        <v>891</v>
+      </c>
+      <c r="U344" s="4" t="s">
+        <v>891</v>
+      </c>
+      <c r="V344" s="4" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="345" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>338</v>
       </c>
@@ -22492,8 +27741,23 @@
       <c r="Q345" s="7" t="s">
         <v>1128</v>
       </c>
-    </row>
-    <row r="346" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R345" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="S345" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="T345" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="U345" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="V345" s="1" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="346" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>339</v>
       </c>
@@ -22544,6 +27808,21 @@
       </c>
       <c r="Q346" s="7" t="s">
         <v>1222</v>
+      </c>
+      <c r="R346" s="4" t="s">
+        <v>892</v>
+      </c>
+      <c r="S346" s="4" t="s">
+        <v>892</v>
+      </c>
+      <c r="T346" s="4" t="s">
+        <v>892</v>
+      </c>
+      <c r="U346" s="4" t="s">
+        <v>892</v>
+      </c>
+      <c r="V346" s="4" t="s">
+        <v>892</v>
       </c>
     </row>
   </sheetData>

--- a/data/tidy/cut_shapefiles_reviewed.xlsx
+++ b/data/tidy/cut_shapefiles_reviewed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d135da842735aabe/Documentos/GitHub/e-gov-index/data/tidy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3052" documentId="11_F25DC773A252ABDACC1048F3099F60CE5BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78A73E38-7880-48D5-A33B-71043430BC7C}"/>
+  <xr:revisionPtr revIDLastSave="3053" documentId="11_F25DC773A252ABDACC1048F3099F60CE5BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{208C5333-2348-4D06-8807-114721E253E5}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Codes" sheetId="1" r:id="rId1"/>
@@ -4268,8 +4268,8 @@
   <dimension ref="A1:V346"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="V4" sqref="V4"/>
+      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4290,7 +4290,7 @@
     <col min="14" max="14" width="26.109375" customWidth="1"/>
     <col min="15" max="15" width="25.6640625" customWidth="1"/>
     <col min="16" max="16" width="25.21875" customWidth="1"/>
-    <col min="17" max="17" width="25" customWidth="1"/>
+    <col min="17" max="17" width="26.6640625" customWidth="1"/>
     <col min="18" max="18" width="31.44140625" customWidth="1"/>
     <col min="19" max="19" width="38.77734375" customWidth="1"/>
     <col min="20" max="21" width="43.5546875" customWidth="1"/>
